--- a/HANNO-V0.4-BUSCO-results.xlsx
+++ b/HANNO-V0.4-BUSCO-results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuhl\Desktop\HANNO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{A4BAEAB7-5976-42C5-A45D-3F868387E968}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{0F0CBDB5-83A1-410C-ACBA-81B272A4F81D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="861" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="861"/>
   </bookViews>
   <sheets>
     <sheet name="Commandlines of Runs" sheetId="5" r:id="rId1"/>
@@ -44,9 +44,6 @@
     <t>M:</t>
   </si>
   <si>
-    <t>CALANN</t>
-  </si>
-  <si>
     <t>DROHOL</t>
   </si>
   <si>
@@ -251,9 +248,6 @@
     <t>Myiozetetes cayanensis</t>
   </si>
   <si>
-    <t>Calypte anna</t>
-  </si>
-  <si>
     <t>Gallus gallus</t>
   </si>
   <si>
@@ -272,9 +266,6 @@
     <t>Gallus gallus                    (91 MYA)</t>
   </si>
   <si>
-    <t>Calypte anna                    (76 MYA)</t>
-  </si>
-  <si>
     <t>Serinus canaria                (24 MYA)</t>
   </si>
   <si>
@@ -560,12 +551,6 @@
     <t>HANNO-GALGAL-V0.4</t>
   </si>
   <si>
-    <t>HANNO-CALANN-V0.4.log</t>
-  </si>
-  <si>
-    <t>HANNO-CALANN-V0.4</t>
-  </si>
-  <si>
     <t>HANNO-MYICAY-V0.4.log</t>
   </si>
   <si>
@@ -725,9 +710,6 @@
     <t>GCF_022539395.1_myiCay2020_genomic.fna.gz</t>
   </si>
   <si>
-    <t>GCF_003957555.1_bCalAnn1_v1.p_genomic.fna.gz</t>
-  </si>
-  <si>
     <t>GCF_016699485.2_bGalGal1.mat.broiler.GRCg7b_genomic.fna.gz</t>
   </si>
   <si>
@@ -747,6 +729,24 @@
   </si>
   <si>
     <t>GCF_004354835.1_PFLA_1.0_protein.faa.gz</t>
+  </si>
+  <si>
+    <t>PHASUP</t>
+  </si>
+  <si>
+    <t>GCA_023637945.1_DD_ASM_B1_genomic.fna.gz</t>
+  </si>
+  <si>
+    <t>HANNO-PHASUP-V0.4</t>
+  </si>
+  <si>
+    <t>HANNO-PHASUP-V0.4.log</t>
+  </si>
+  <si>
+    <t>Phaethornis superciliosus                    (76 MYA)</t>
+  </si>
+  <si>
+    <t>Phaethornis superciliosus</t>
   </si>
 </sst>
 </file>
@@ -3363,7 +3363,7 @@
                   <c:v>Myiozetetes cayanensis (26 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Calypte anna                    (76 MYA)</c:v>
+                  <c:v>Phaethornis superciliosus                    (76 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Gallus gallus                    (91 MYA)</c:v>
@@ -3393,7 +3393,7 @@
                   <c:v>2.0956299999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.3570700000000002</c:v>
+                  <c:v>1.93286</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1.87182</c:v>
@@ -3819,7 +3819,7 @@
                   <c:v>Myiozetetes cayanensis (26 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Calypte anna                    (76 MYA)</c:v>
+                  <c:v>Phaethornis superciliosus                    (76 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Gallus gallus                    (91 MYA)</c:v>
@@ -3849,7 +3849,7 @@
                   <c:v>95.483199999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>93.896199999999993</c:v>
+                  <c:v>96.276700000000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>96.215699999999998</c:v>
@@ -10030,8 +10030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10059,1242 +10059,1242 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B1" s="13" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E1" s="13"/>
       <c r="F1" s="13" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G1" s="13"/>
       <c r="H1" s="13" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="I1" s="13"/>
       <c r="J1" s="13" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="K1" s="13"/>
       <c r="L1" s="13" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="M1" s="13"/>
       <c r="Q1" s="3" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C3" s="11">
         <v>12</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="S3" s="9"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C4" s="11">
         <v>12</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="S4" s="9"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C5" s="11">
         <v>12</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="S5" s="9"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C6" s="11">
         <v>12</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="S6" s="9"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C7" s="11">
         <v>12</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="R7" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="S7" s="9"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C8" s="11">
         <v>12</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="R8" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="S8" s="9"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C9" s="11">
         <v>12</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P9" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="Q9" s="9" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="R9" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="S9" s="9"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C12" s="11">
         <v>12</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P12" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="Q12" s="9" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="R12" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="S12" s="9"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C13" s="11">
         <v>12</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G13" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="K13" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="H13" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="K13" s="10" t="s">
-        <v>237</v>
-      </c>
       <c r="L13" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P13" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="Q13" s="9" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="R13" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="S13" s="9"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C14" s="11">
         <v>12</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P14" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="Q14" s="9" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="R14" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="S14" s="9"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C15" s="11">
         <v>12</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>179</v>
+        <v>237</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G15" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="I15" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="H15" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>239</v>
-      </c>
       <c r="J15" s="9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="N15" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P15" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="Q15" s="9" t="s">
-        <v>178</v>
+        <v>238</v>
       </c>
       <c r="R15" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="S15" s="9"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C16" s="11">
         <v>12</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="N16" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O16" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P16" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="Q16" s="9" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="R16" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="S16" s="9"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C17" s="11">
         <v>12</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M17" s="10" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="N17" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O17" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P17" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="R17" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="S17" s="9"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C20" s="11">
         <v>8</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M20" s="10" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="N20" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O20" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P20" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="Q20" s="9" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="R20" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="S20" s="9"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C21" s="11">
         <v>8</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M21" s="10" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="N21" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O21" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P21" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="Q21" s="9" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="R21" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="S21" s="9"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C22" s="11">
         <v>8</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M22" s="10" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="N22" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O22" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P22" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="Q22" s="9" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="R22" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="S22" s="9"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C23" s="11">
         <v>8</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="L23" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M23" s="10" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="N23" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O23" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P23" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="Q23" s="9" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="R23" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="S23" s="9"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C24" s="11">
         <v>8</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="L24" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M24" s="10" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="N24" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O24" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P24" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="Q24" s="9" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="R24" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="S24" s="9"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C25" s="11">
         <v>8</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="L25" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M25" s="10" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="N25" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O25" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P25" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="Q25" s="9" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="R25" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="S25" s="9"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C26" s="11">
         <v>8</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="L26" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M26" s="10" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="N26" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O26" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P26" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="Q26" s="9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="R26" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="S26" s="9"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C27" s="11">
         <v>8</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="L27" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M27" s="10" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="N27" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O27" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P27" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="Q27" s="9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="R27" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="S27" s="9"/>
     </row>
@@ -11321,7 +11321,7 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -11344,685 +11344,685 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C30" s="11">
         <v>6</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="L30" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M30" s="10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="N30" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O30" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P30" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="Q30" s="9" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="R30" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="S30" s="9"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C31" s="11">
         <v>6</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="L31" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M31" s="10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="N31" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O31" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P31" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="Q31" s="9" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="R31" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="S31" s="9"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C32" s="11">
         <v>6</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="L32" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M32" s="10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="N32" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O32" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P32" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="Q32" s="9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="R32" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="S32" s="9"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C33" s="11">
         <v>6</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="L33" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M33" s="10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="N33" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O33" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P33" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="Q33" s="9" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="R33" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="S33" s="9"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C34" s="11">
         <v>6</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="L34" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M34" s="10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="N34" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O34" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P34" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="Q34" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="R34" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="S34" s="9"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C35" s="11">
         <v>6</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="L35" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M35" s="10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="N35" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O35" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P35" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="Q35" s="9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="R35" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="S35" s="9"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C36" s="11">
         <v>6</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="L36" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M36" s="10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="N36" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O36" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P36" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="Q36" s="9" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R36" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="S36" s="9"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C37" s="11">
         <v>6</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K37" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M37" s="10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="Q37" s="9" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="R37" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="S37" s="9"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C38" s="11">
         <v>6</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="L38" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M38" s="10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="N38" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O38" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P38" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="Q38" s="9" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="R38" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="S38" s="9"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C39" s="11">
         <v>6</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K39" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="L39" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M39" s="10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="N39" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O39" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P39" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="Q39" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="R39" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="S39" s="9"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C40" s="11">
         <v>6</v>
       </c>
       <c r="D40" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="I40" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="J40" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="K40" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="L40" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="M40" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="N40" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="O40" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="P40" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q40" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="E40" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="G40" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="H40" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="I40" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="J40" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="K40" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="L40" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="M40" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="N40" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="O40" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="P40" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q40" s="9" t="s">
-        <v>125</v>
-      </c>
       <c r="R40" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="S40" s="9"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C41" s="11">
         <v>6</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K41" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="L41" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M41" s="10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="N41" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O41" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P41" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="Q41" s="9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="R41" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="S41" s="9"/>
     </row>
@@ -12044,7 +12044,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
@@ -12075,27 +12075,27 @@
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="6">
         <v>99.4</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E2" s="6">
         <v>0.4</v>
@@ -12107,15 +12107,15 @@
         <v>0</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>98.014799999999994</v>
@@ -12136,15 +12136,15 @@
         <v>0</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>98.058499999999995</v>
@@ -12165,15 +12165,15 @@
         <v>31</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>98.080299999999994</v>
@@ -12194,15 +12194,15 @@
         <v>77</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>97.774900000000002</v>
@@ -12223,15 +12223,15 @@
         <v>104</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>97.927599999999998</v>
@@ -12252,15 +12252,15 @@
         <v>112</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>94.546199999999999</v>
@@ -12281,15 +12281,15 @@
         <v>205</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9">
         <v>91.012200000000007</v>
@@ -12310,15 +12310,15 @@
         <v>224</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10">
         <v>89.594200000000001</v>
@@ -12339,10 +12339,10 @@
         <v>224</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -12359,7 +12359,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
@@ -12390,27 +12390,27 @@
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="6">
         <v>98</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E2">
         <v>0.8</v>
@@ -12419,12 +12419,12 @@
         <v>1.2</v>
       </c>
       <c r="I2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3">
         <v>96.287700000000001</v>
@@ -12445,15 +12445,15 @@
         <v>0</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>96.674400000000006</v>
@@ -12474,15 +12474,15 @@
         <v>31.9</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5">
         <v>96.713099999999997</v>
@@ -12503,15 +12503,15 @@
         <v>68</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6">
         <v>95.823700000000002</v>
@@ -12532,15 +12532,15 @@
         <v>192</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7">
         <v>95.398300000000006</v>
@@ -12561,15 +12561,15 @@
         <v>202</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8">
         <v>89.907200000000003</v>
@@ -12590,10 +12590,10 @@
         <v>210</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -12610,8 +12610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12641,27 +12641,27 @@
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>98.6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E2">
         <v>0.7</v>
@@ -12673,15 +12673,15 @@
         <v>0</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>97.619500000000002</v>
@@ -12702,15 +12702,15 @@
         <v>0</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>96.561499999999995</v>
@@ -12731,15 +12731,15 @@
         <v>24</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>95.483199999999997</v>
@@ -12760,44 +12760,44 @@
         <v>26</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>235</v>
       </c>
       <c r="B6">
-        <v>93.896199999999993</v>
+        <v>96.276700000000005</v>
       </c>
       <c r="C6">
-        <v>92.492400000000004</v>
+        <v>95.117000000000004</v>
       </c>
       <c r="D6">
-        <v>1.40387</v>
+        <v>1.1597200000000001</v>
       </c>
       <c r="E6">
-        <v>2.7466900000000001</v>
+        <v>1.79044</v>
       </c>
       <c r="F6">
-        <v>3.3570700000000002</v>
+        <v>1.93286</v>
       </c>
       <c r="G6">
         <v>76</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>75</v>
+        <v>240</v>
       </c>
       <c r="I6" t="s">
-        <v>82</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>96.215699999999998</v>
@@ -12818,15 +12818,15 @@
         <v>91</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>95.910499999999999</v>
@@ -12847,10 +12847,10 @@
         <v>108</v>
       </c>
       <c r="H8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I8" t="s">
         <v>77</v>
-      </c>
-      <c r="I8" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -12898,27 +12898,27 @@
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2">
         <v>99.9</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E2" s="14">
         <v>0</v>
@@ -12930,15 +12930,15 @@
         <v>0</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3">
         <v>98.796899999999994</v>
@@ -12959,15 +12959,15 @@
         <v>0</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4">
         <v>98.569299999999998</v>
@@ -12988,15 +12988,15 @@
         <v>6.4</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5">
         <v>98.471699999999998</v>
@@ -13017,15 +13017,15 @@
         <v>15.2</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6">
         <v>97.171000000000006</v>
@@ -13046,15 +13046,15 @@
         <v>43</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7">
         <v>96.4773</v>
@@ -13075,15 +13075,15 @@
         <v>87</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8">
         <v>96.694100000000006</v>
@@ -13104,15 +13104,15 @@
         <v>94</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9">
         <v>96.921700000000001</v>
@@ -13133,15 +13133,15 @@
         <v>94</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10">
         <v>95.9679</v>
@@ -13162,15 +13162,15 @@
         <v>94</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11">
         <v>95.762</v>
@@ -13191,15 +13191,15 @@
         <v>94</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I11" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12">
         <v>97.398700000000005</v>
@@ -13220,15 +13220,15 @@
         <v>99</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I12" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13">
         <v>82.506</v>
@@ -13249,10 +13249,10 @@
         <v>160</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/HANNO-V0.4-BUSCO-results.xlsx
+++ b/HANNO-V0.4-BUSCO-results.xlsx
@@ -1,30 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuhl\Desktop\HANNO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuhl\Desktop\HANNO-bioRxiv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{0F0CBDB5-83A1-410C-ACBA-81B272A4F81D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87068819-B641-4273-90F9-1AD0CC27271D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="861"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12228" tabRatio="861" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Commandlines of Runs" sheetId="5" r:id="rId1"/>
-    <sheet name="FISHES-V0.4-BUSCO-results" sheetId="2" r:id="rId2"/>
-    <sheet name="AMPHIBIANS-V0.4-BUSCO-results" sheetId="4" r:id="rId3"/>
-    <sheet name="BIRDS-V0.4-BUSCO-results" sheetId="1" r:id="rId4"/>
-    <sheet name="MAMMALS-V0.4-BUSCO-results" sheetId="3" r:id="rId5"/>
+    <sheet name="Table 1" sheetId="6" r:id="rId1"/>
+    <sheet name="Suppl. Data 1 - ACC &amp; Commands" sheetId="5" r:id="rId2"/>
+    <sheet name="Suppl. Data 2 - FISHES-BUSCO" sheetId="2" r:id="rId3"/>
+    <sheet name="Suppl. Data 3 - AMPHIBIA-BUSCO" sheetId="4" r:id="rId4"/>
+    <sheet name="Suppl. Data 4 - BIRDS-BUSCO" sheetId="1" r:id="rId5"/>
+    <sheet name="Suppl. Data 5 - MAMMALS-BUSCO" sheetId="3" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="249">
   <si>
     <t>#name</t>
   </si>
@@ -167,9 +168,6 @@
     <t>Leptodactylus fuscus (68 MYA)</t>
   </si>
   <si>
-    <t>Spea bombifrons (192 MYA)</t>
-  </si>
-  <si>
     <t>Xenopus tropicalis (202 MYA)</t>
   </si>
   <si>
@@ -179,9 +177,6 @@
     <t>Bufo bufo                       (0 MYA)</t>
   </si>
   <si>
-    <t>Bufotes viridis     (31,9 MYA)</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -236,9 +231,6 @@
     <t>Clarias gariepinus          (224 MYA)</t>
   </si>
   <si>
-    <t>Epinephelus fuscoguttatus           (77 MYA)</t>
-  </si>
-  <si>
     <t>Taeniopygia guttata</t>
   </si>
   <si>
@@ -254,24 +246,12 @@
     <t>Dromaius novaehollandiae</t>
   </si>
   <si>
-    <t>Myiozetetes cayanensis (26 MYA)</t>
-  </si>
-  <si>
     <t>Dromaius novaehollandiae (108 MYA)</t>
   </si>
   <si>
     <t>Taeniopygia guttata input annotation</t>
   </si>
   <si>
-    <t>Gallus gallus                    (91 MYA)</t>
-  </si>
-  <si>
-    <t>Serinus canaria                (24 MYA)</t>
-  </si>
-  <si>
-    <t>Taeniopygia guttata          (0 MYA)</t>
-  </si>
-  <si>
     <t>mammalia_odb10</t>
   </si>
   <si>
@@ -314,18 +294,12 @@
     <t>Homo sapiens input annotation</t>
   </si>
   <si>
-    <t>Elephas maximus indicus                        (99 MYA)</t>
-  </si>
-  <si>
     <t>Rhinolophus ferrumequinum          (94 MYA)</t>
   </si>
   <si>
     <t>Orcinus orca               (94 MYA)</t>
   </si>
   <si>
-    <t>Bos taurus                  (94 MYA)</t>
-  </si>
-  <si>
     <t>Capra hircus                   (94 MYA)</t>
   </si>
   <si>
@@ -419,15 +393,6 @@
     <t>EleMax1.0.4</t>
   </si>
   <si>
-    <t>talOcc4v2.1.0.4.log</t>
-  </si>
-  <si>
-    <t>GCF_014898055.3_MPIMG_talOcc4v2.1_genomic.fna.gz</t>
-  </si>
-  <si>
-    <t>talOcc4v2.1.0.4</t>
-  </si>
-  <si>
     <t>CalJa1.0.4.log</t>
   </si>
   <si>
@@ -602,15 +567,6 @@
     <t>GCF_027358695.1_aSpeBom1.2.pri_genomic.fna.gz</t>
   </si>
   <si>
-    <t>HANNO-BUFGAR-v0.4.log</t>
-  </si>
-  <si>
-    <t>HANNO-BUFGAR-v0.4</t>
-  </si>
-  <si>
-    <t>GCF_014858855.1_ASM1485885v1_genomic.fna.gz</t>
-  </si>
-  <si>
     <t>HANNO-XENTROP-v0.4.log</t>
   </si>
   <si>
@@ -747,15 +703,124 @@
   </si>
   <si>
     <t>Phaethornis superciliosus</t>
+  </si>
+  <si>
+    <t>Epinephelus fuscoguttatus               (77 MYA)</t>
+  </si>
+  <si>
+    <t>Bufotes viridis         (31,9 MYA)</t>
+  </si>
+  <si>
+    <t>Spea bombifrons      (192 MYA)</t>
+  </si>
+  <si>
+    <t>Gallus gallus                         (91 MYA)</t>
+  </si>
+  <si>
+    <t>Myiozetetes cayanensis     (26 MYA)</t>
+  </si>
+  <si>
+    <t>Serinus canaria                    (24 MYA)</t>
+  </si>
+  <si>
+    <t>Taeniopygia guttata               (0 MYA)</t>
+  </si>
+  <si>
+    <t>Bos taurus                      (94 MYA)</t>
+  </si>
+  <si>
+    <t>Elephas maximus indicus                            (99 MYA)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Suplementary Data 1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Command lines and accessions for benchmarking of HANNO on 31 vertebrate genomes of recent to distant divergence.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Table 1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> HANNO benchmark runtimes on different vertebrate clades (HPC-server (Intel(R) Xeon(R) CPU E7-8890 v4 @ 2.20GHz; 96-threads; 1TB RAM).</t>
+    </r>
+  </si>
+  <si>
+    <t>Fish</t>
+  </si>
+  <si>
+    <t>Birds</t>
+  </si>
+  <si>
+    <t>Amphibians</t>
+  </si>
+  <si>
+    <t>Mammals</t>
+  </si>
+  <si>
+    <t>#threads used</t>
+  </si>
+  <si>
+    <t>3h:00m</t>
+  </si>
+  <si>
+    <t>approx. wall-clock time</t>
+  </si>
+  <si>
+    <t>2h:00m</t>
+  </si>
+  <si>
+    <t>1h:45m</t>
+  </si>
+  <si>
+    <t>7h:20m</t>
+  </si>
+  <si>
+    <t>#parallel annotations</t>
+  </si>
+  <si>
+    <t>#annotations/h</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="0.0000"/>
-    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -1087,7 +1152,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1202,6 +1267,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1247,7 +1321,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1258,8 +1332,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1271,10 +1345,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1499,7 +1578,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'FISHES-V0.4-BUSCO-results'!$I$2:$I$10</c:f>
+              <c:f>'Suppl. Data 2 - FISHES-BUSCO'!$I$2:$I$10</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -1512,7 +1591,7 @@
                   <c:v>Sander vitreus                 (31 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Epinephelus fuscoguttatus           (77 MYA)</c:v>
+                  <c:v>Epinephelus fuscoguttatus               (77 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Dicentrarchus labrax    (104 MYA)</c:v>
@@ -1534,7 +1613,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'FISHES-V0.4-BUSCO-results'!$F$2:$F$10</c:f>
+              <c:f>'Suppl. Data 2 - FISHES-BUSCO'!$F$2:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1967,7 +2046,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'FISHES-V0.4-BUSCO-results'!$I$2:$I$10</c:f>
+              <c:f>'Suppl. Data 2 - FISHES-BUSCO'!$I$2:$I$10</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -1980,7 +2059,7 @@
                   <c:v>Sander vitreus                 (31 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Epinephelus fuscoguttatus           (77 MYA)</c:v>
+                  <c:v>Epinephelus fuscoguttatus               (77 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Dicentrarchus labrax    (104 MYA)</c:v>
@@ -2002,7 +2081,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'FISHES-V0.4-BUSCO-results'!$B$2:$B$10</c:f>
+              <c:f>'Suppl. Data 2 - FISHES-BUSCO'!$B$2:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2435,7 +2514,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'AMPHIBIANS-V0.4-BUSCO-results'!$I$2:$I$8</c:f>
+              <c:f>'Suppl. Data 3 - AMPHIBIA-BUSCO'!$I$2:$I$8</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -2445,13 +2524,13 @@
                   <c:v>Bufo bufo                       (0 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Bufotes viridis     (31,9 MYA)</c:v>
+                  <c:v>Bufotes viridis         (31,9 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Leptodactylus fuscus (68 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Spea bombifrons (192 MYA)</c:v>
+                  <c:v>Spea bombifrons      (192 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Xenopus tropicalis (202 MYA)</c:v>
@@ -2464,7 +2543,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'AMPHIBIANS-V0.4-BUSCO-results'!$F$2:$F$8</c:f>
+              <c:f>'Suppl. Data 3 - AMPHIBIA-BUSCO'!$F$2:$F$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2536,7 +2615,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -2891,7 +2970,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'AMPHIBIANS-V0.4-BUSCO-results'!$I$2:$I$8</c:f>
+              <c:f>'Suppl. Data 3 - AMPHIBIA-BUSCO'!$I$2:$I$8</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -2901,13 +2980,13 @@
                   <c:v>Bufo bufo                       (0 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Bufotes viridis     (31,9 MYA)</c:v>
+                  <c:v>Bufotes viridis         (31,9 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Leptodactylus fuscus (68 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Spea bombifrons (192 MYA)</c:v>
+                  <c:v>Spea bombifrons      (192 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Xenopus tropicalis (202 MYA)</c:v>
@@ -2920,7 +2999,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'AMPHIBIANS-V0.4-BUSCO-results'!$B$2:$B$8</c:f>
+              <c:f>'Suppl. Data 3 - AMPHIBIA-BUSCO'!$B$2:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3347,26 +3426,26 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'BIRDS-V0.4-BUSCO-results'!$I$2:$I$8</c:f>
+              <c:f>'Suppl. Data 4 - BIRDS-BUSCO'!$I$2:$I$8</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Taeniopygia guttata input annotation</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Taeniopygia guttata          (0 MYA)</c:v>
+                  <c:v>Taeniopygia guttata               (0 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Serinus canaria                (24 MYA)</c:v>
+                  <c:v>Serinus canaria                    (24 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Myiozetetes cayanensis (26 MYA)</c:v>
+                  <c:v>Myiozetetes cayanensis     (26 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Phaethornis superciliosus                    (76 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Gallus gallus                    (91 MYA)</c:v>
+                  <c:v>Gallus gallus                         (91 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Dromaius novaehollandiae (108 MYA)</c:v>
@@ -3376,7 +3455,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'BIRDS-V0.4-BUSCO-results'!$F$2:$F$8</c:f>
+              <c:f>'Suppl. Data 4 - BIRDS-BUSCO'!$F$2:$F$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3803,26 +3882,26 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'BIRDS-V0.4-BUSCO-results'!$I$2:$I$8</c:f>
+              <c:f>'Suppl. Data 4 - BIRDS-BUSCO'!$I$2:$I$8</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Taeniopygia guttata input annotation</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Taeniopygia guttata          (0 MYA)</c:v>
+                  <c:v>Taeniopygia guttata               (0 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Serinus canaria                (24 MYA)</c:v>
+                  <c:v>Serinus canaria                    (24 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Myiozetetes cayanensis (26 MYA)</c:v>
+                  <c:v>Myiozetetes cayanensis     (26 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Phaethornis superciliosus                    (76 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Gallus gallus                    (91 MYA)</c:v>
+                  <c:v>Gallus gallus                         (91 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Dromaius novaehollandiae (108 MYA)</c:v>
@@ -3832,7 +3911,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'BIRDS-V0.4-BUSCO-results'!$B$2:$B$8</c:f>
+              <c:f>'Suppl. Data 4 - BIRDS-BUSCO'!$B$2:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -4259,7 +4338,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'MAMMALS-V0.4-BUSCO-results'!$I$2:$I$13</c:f>
+              <c:f>'Suppl. Data 5 - MAMMALS-BUSCO'!$I$2:$I$13</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -4284,7 +4363,7 @@
                   <c:v>Capra hircus                   (94 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Bos taurus                  (94 MYA)</c:v>
+                  <c:v>Bos taurus                      (94 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Orcinus orca               (94 MYA)</c:v>
@@ -4293,7 +4372,7 @@
                   <c:v>Rhinolophus ferrumequinum          (94 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Elephas maximus indicus                        (99 MYA)</c:v>
+                  <c:v>Elephas maximus indicus                            (99 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Phascolarctos cinereus (160 MYA)</c:v>
@@ -4303,7 +4382,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'MAMMALS-V0.4-BUSCO-results'!$F$2:$F$13</c:f>
+              <c:f>'Suppl. Data 5 - MAMMALS-BUSCO'!$F$2:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -4744,7 +4823,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'MAMMALS-V0.4-BUSCO-results'!$I$2:$I$13</c:f>
+              <c:f>'Suppl. Data 5 - MAMMALS-BUSCO'!$I$2:$I$13</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -4769,7 +4848,7 @@
                   <c:v>Capra hircus                   (94 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Bos taurus                  (94 MYA)</c:v>
+                  <c:v>Bos taurus                      (94 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Orcinus orca               (94 MYA)</c:v>
@@ -4778,7 +4857,7 @@
                   <c:v>Rhinolophus ferrumequinum          (94 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Elephas maximus indicus                        (99 MYA)</c:v>
+                  <c:v>Elephas maximus indicus                            (99 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Phascolarctos cinereus (160 MYA)</c:v>
@@ -4788,7 +4867,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'MAMMALS-V0.4-BUSCO-results'!$B$2:$B$13</c:f>
+              <c:f>'Suppl. Data 5 - MAMMALS-BUSCO'!$B$2:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -10027,1278 +10106,1372 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F3622F8-AFAD-4600-ABA3-FF3D5C763A2C}">
+  <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.42578125" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="66.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="44.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="55.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B3" s="5">
+        <v>8</v>
+      </c>
+      <c r="C3" s="5">
+        <v>8</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="E3" s="17">
+        <f>8/3</f>
+        <v>2.6666666666666665</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B4" s="5">
+        <v>12</v>
+      </c>
+      <c r="C4" s="5">
+        <v>6</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E4" s="17">
+        <f>6/2</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B5" s="5">
+        <v>12</v>
+      </c>
+      <c r="C5" s="5">
+        <v>6</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E5" s="17">
+        <f>6/1.75</f>
+        <v>3.4285714285714284</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>240</v>
+      </c>
+      <c r="B6" s="5">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5">
+        <v>11</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="E6" s="17">
+        <f>11/7.33</f>
+        <v>1.500682128240109</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S40"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:S1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.44140625" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="66.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="44.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="55.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.88671875" style="8" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="25" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="2.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="2.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B1" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="M1" s="13"/>
-      <c r="Q1" s="3" t="s">
-        <v>214</v>
-      </c>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>207</v>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B2" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="M2" s="14"/>
+      <c r="Q2" s="3" t="s">
+        <v>199</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="C3" s="11">
-        <v>12</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="L3" s="9" t="s">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>111</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="P3" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q3" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="R3" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="S3" s="9"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>120</v>
       </c>
       <c r="C4" s="11">
         <v>12</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="G4" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="M4" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>215</v>
-      </c>
       <c r="N4" s="9" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="S4" s="9"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C5" s="11">
         <v>12</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="I5" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q5" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="J5" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="M5" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="N5" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="O5" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="P5" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q5" s="9" t="s">
-        <v>195</v>
-      </c>
       <c r="R5" s="9" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="S5" s="9"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C6" s="11">
         <v>12</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="S6" s="9"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C7" s="11">
         <v>12</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="R7" s="9" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="S7" s="9"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C8" s="11">
         <v>12</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="R8" s="9" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="S8" s="9"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C9" s="11">
         <v>12</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="P9" s="9" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="Q9" s="9" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="R9" s="9" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="S9" s="9"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C12" s="11">
         <v>12</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="P12" s="9" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="Q12" s="9" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="R12" s="9" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="S12" s="9"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C13" s="11">
         <v>12</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="P13" s="9" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="Q13" s="9" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="R13" s="9" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="S13" s="9"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C14" s="11">
         <v>12</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="P14" s="9" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="Q14" s="9" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="R14" s="9" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="S14" s="9"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C15" s="11">
         <v>12</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="N15" s="9" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="P15" s="9" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="Q15" s="9" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="R15" s="9" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="S15" s="9"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C16" s="11">
         <v>12</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="N16" s="9" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="O16" s="9" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="P16" s="9" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="Q16" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="R16" s="9" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="S16" s="9"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C17" s="11">
         <v>12</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="M17" s="10" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="N17" s="9" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="O17" s="9" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="P17" s="9" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="R17" s="9" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="S17" s="9"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C20" s="11">
         <v>8</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="M20" s="10" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="N20" s="9" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="O20" s="9" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="P20" s="9" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="Q20" s="9" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="R20" s="9" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="S20" s="9"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C21" s="11">
         <v>8</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="M21" s="10" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="N21" s="9" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="O21" s="9" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="P21" s="9" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="Q21" s="9" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="R21" s="9" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="S21" s="9"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C22" s="11">
         <v>8</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="G22" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="I22" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="H22" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="I22" s="10" t="s">
-        <v>234</v>
-      </c>
       <c r="J22" s="9" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="M22" s="10" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="N22" s="9" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="O22" s="9" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="P22" s="9" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="Q22" s="9" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="R22" s="9" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="S22" s="9"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C23" s="11">
         <v>8</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="L23" s="9" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="M23" s="10" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="N23" s="9" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="O23" s="9" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="P23" s="9" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="Q23" s="9" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="R23" s="9" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="S23" s="9"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C24" s="11">
         <v>8</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="L24" s="9" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="M24" s="10" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="N24" s="9" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="O24" s="9" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="P24" s="9" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="Q24" s="9" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="R24" s="9" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="S24" s="9"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C25" s="11">
         <v>8</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="L25" s="9" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="M25" s="10" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="N25" s="9" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="O25" s="9" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="P25" s="9" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="Q25" s="9" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="R25" s="9" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="S25" s="9"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C26" s="11">
         <v>8</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="L26" s="9" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="M26" s="10" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="N26" s="9" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="O26" s="9" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="P26" s="9" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="Q26" s="9" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="R26" s="9" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="S26" s="9"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C27" s="11">
         <v>8</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="L27" s="9" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="M27" s="10" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="N27" s="9" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="O27" s="9" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="P27" s="9" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="Q27" s="9" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="R27" s="9" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="S27" s="9"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="11"/>
@@ -11319,9 +11492,9 @@
       <c r="R28" s="9"/>
       <c r="S28" s="9"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -11342,720 +11515,664 @@
       <c r="R29" s="9"/>
       <c r="S29" s="9"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C30" s="11">
         <v>6</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="L30" s="9" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="M30" s="10" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="N30" s="9" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="O30" s="9" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="P30" s="9" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="Q30" s="9" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="R30" s="9" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="S30" s="9"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C31" s="11">
         <v>6</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="L31" s="9" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="M31" s="10" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="N31" s="9" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="O31" s="9" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="P31" s="9" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="Q31" s="9" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="R31" s="9" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="S31" s="9"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C32" s="11">
         <v>6</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="L32" s="9" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="M32" s="10" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="N32" s="9" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="O32" s="9" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="P32" s="9" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="Q32" s="9" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="R32" s="9" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="S32" s="9"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C33" s="11">
         <v>6</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="L33" s="9" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="M33" s="10" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="N33" s="9" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="O33" s="9" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="P33" s="9" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="Q33" s="9" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="R33" s="9" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="S33" s="9"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C34" s="11">
         <v>6</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="L34" s="9" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="M34" s="10" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="N34" s="9" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="O34" s="9" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="P34" s="9" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="Q34" s="9" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="R34" s="9" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="S34" s="9"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C35" s="11">
         <v>6</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="L35" s="9" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="M35" s="10" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="N35" s="9" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="O35" s="9" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="P35" s="9" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="Q35" s="9" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="R35" s="9" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="S35" s="9"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C36" s="11">
         <v>6</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="L36" s="9" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="M36" s="10" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="N36" s="9" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="O36" s="9" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="P36" s="9" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="Q36" s="9" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="R36" s="9" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="S36" s="9"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C37" s="11">
         <v>6</v>
       </c>
       <c r="D37" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="I37" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="K37" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="L37" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="M37" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="N37" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="O37" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="P37" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q37" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="E37" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="G37" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="H37" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="I37" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="J37" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="K37" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="L37" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="M37" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="N37" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="O37" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="P37" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q37" s="9" t="s">
-        <v>131</v>
-      </c>
       <c r="R37" s="9" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="S37" s="9"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C38" s="11">
         <v>6</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="F38" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G38" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="G38" s="10" t="s">
-        <v>129</v>
-      </c>
       <c r="H38" s="9" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="L38" s="9" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="M38" s="10" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="N38" s="9" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="O38" s="9" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="P38" s="9" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="Q38" s="9" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="R38" s="9" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="S38" s="9"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C39" s="11">
         <v>6</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="J39" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="K39" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="L39" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="M39" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="N39" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="O39" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="P39" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q39" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="K39" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="L39" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="M39" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="N39" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="O39" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="P39" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q39" s="9" t="s">
-        <v>125</v>
-      </c>
       <c r="R39" s="9" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="S39" s="9"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C40" s="11">
         <v>6</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="K40" s="10" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="L40" s="9" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="M40" s="10" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="N40" s="9" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="O40" s="9" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="P40" s="9" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="Q40" s="9" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="R40" s="9" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="S40" s="9"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="C41" s="11">
-        <v>6</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="G41" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="H41" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="I41" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="J41" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="K41" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="L41" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="M41" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="N41" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="O41" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="P41" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q41" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="R41" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="S41" s="9"/>
-    </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
+  <mergeCells count="7">
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="33.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -12084,7 +12201,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -12092,10 +12209,10 @@
         <v>99.4</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E2" s="6">
         <v>0.4</v>
@@ -12107,13 +12224,13 @@
         <v>0</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -12136,13 +12253,13 @@
         <v>0</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -12165,13 +12282,13 @@
         <v>31</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -12194,13 +12311,13 @@
         <v>77</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>226</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -12223,13 +12340,13 @@
         <v>104</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -12252,13 +12369,13 @@
         <v>112</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -12281,13 +12398,13 @@
         <v>205</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -12310,13 +12427,13 @@
         <v>224</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -12339,10 +12456,10 @@
         <v>224</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -12355,22 +12472,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView topLeftCell="A20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -12399,7 +12516,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -12407,10 +12524,10 @@
         <v>98</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E2">
         <v>0.8</v>
@@ -12419,10 +12536,10 @@
         <v>1.2</v>
       </c>
       <c r="I2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -12448,10 +12565,10 @@
         <v>39</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -12477,10 +12594,10 @@
         <v>40</v>
       </c>
       <c r="I4" t="s">
-        <v>51</v>
+        <v>227</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -12509,7 +12626,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -12535,10 +12652,10 @@
         <v>41</v>
       </c>
       <c r="I6" t="s">
-        <v>47</v>
+        <v>228</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -12564,10 +12681,10 @@
         <v>42</v>
       </c>
       <c r="I7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -12593,7 +12710,7 @@
         <v>43</v>
       </c>
       <c r="I8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -12606,22 +12723,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -12650,7 +12767,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -12658,10 +12775,10 @@
         <v>98.6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E2">
         <v>0.7</v>
@@ -12673,13 +12790,13 @@
         <v>0</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -12702,13 +12819,13 @@
         <v>0</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I3" t="s">
-        <v>81</v>
+        <v>232</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -12731,13 +12848,13 @@
         <v>24</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I4" t="s">
-        <v>80</v>
+        <v>231</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -12760,15 +12877,15 @@
         <v>26</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I5" t="s">
-        <v>76</v>
+        <v>230</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="B6">
         <v>96.276700000000005</v>
@@ -12789,13 +12906,13 @@
         <v>76</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="I6" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -12818,13 +12935,13 @@
         <v>91</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I7" t="s">
-        <v>79</v>
+        <v>229</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -12847,10 +12964,10 @@
         <v>108</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -12862,23 +12979,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W39" sqref="W39"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -12907,7 +13024,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -12915,12 +13032,12 @@
         <v>99.9</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" s="14">
+        <v>50</v>
+      </c>
+      <c r="E2" s="13">
         <v>0</v>
       </c>
       <c r="F2">
@@ -12930,13 +13047,13 @@
         <v>0</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -12959,13 +13076,13 @@
         <v>0</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I3" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -12988,13 +13105,13 @@
         <v>6.4</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="I4" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -13017,13 +13134,13 @@
         <v>15.2</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="I5" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -13046,13 +13163,13 @@
         <v>43</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I6" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -13075,13 +13192,13 @@
         <v>87</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I7" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -13104,13 +13221,13 @@
         <v>94</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="I8" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -13133,13 +13250,13 @@
         <v>94</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="I9" t="s">
-        <v>99</v>
+        <v>233</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -13162,13 +13279,13 @@
         <v>94</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="I10" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -13191,13 +13308,13 @@
         <v>94</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="I11" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -13220,13 +13337,13 @@
         <v>99</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="I12" t="s">
-        <v>96</v>
+        <v>234</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -13249,10 +13366,10 @@
         <v>160</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="I13" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/HANNO-V0.4-BUSCO-results.xlsx
+++ b/HANNO-V0.4-BUSCO-results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuhl\Desktop\HANNO-bioRxiv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87068819-B641-4273-90F9-1AD0CC27271D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A2100D-C127-4EAB-92B8-CF7FF6598E0F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12228" tabRatio="861" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1346,14 +1346,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -10110,7 +10110,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:N1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10121,35 +10121,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
     </row>
     <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16" t="s">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="14" t="s">
         <v>248</v>
       </c>
     </row>
@@ -10166,7 +10166,7 @@
       <c r="D3" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="15">
         <f>8/3</f>
         <v>2.6666666666666665</v>
       </c>
@@ -10184,7 +10184,7 @@
       <c r="D4" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="15">
         <f>6/2</f>
         <v>3</v>
       </c>
@@ -10202,7 +10202,7 @@
       <c r="D5" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="15">
         <f>6/1.75</f>
         <v>3.4285714285714284</v>
       </c>
@@ -10220,7 +10220,7 @@
       <c r="D6" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="15">
         <f>11/7.33</f>
         <v>1.500682128240109</v>
       </c>
@@ -10265,53 +10265,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14" t="s">
+      <c r="E2" s="17"/>
+      <c r="F2" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14" t="s">
+      <c r="G2" s="17"/>
+      <c r="H2" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14" t="s">
+      <c r="I2" s="17"/>
+      <c r="J2" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14" t="s">
+      <c r="K2" s="17"/>
+      <c r="L2" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="M2" s="14"/>
+      <c r="M2" s="17"/>
       <c r="Q2" s="3" t="s">
         <v>199</v>
       </c>
@@ -12161,9 +12161,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -12476,9 +12474,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H60" sqref="H60"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -12727,9 +12723,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -12983,9 +12977,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>

--- a/HANNO-V0.4-BUSCO-results.xlsx
+++ b/HANNO-V0.4-BUSCO-results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuhl\Desktop\HANNO-bioRxiv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuhl\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A2100D-C127-4EAB-92B8-CF7FF6598E0F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10168B94-4444-46EF-AF9A-7D34353C6F56}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12228" tabRatio="861" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21270" windowHeight="11625" tabRatio="861" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="6" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="251">
   <si>
     <t>#name</t>
   </si>
@@ -812,6 +812,12 @@
   </si>
   <si>
     <t>#annotations/h</t>
+  </si>
+  <si>
+    <t>Missing</t>
+  </si>
+  <si>
+    <t>Fragmented</t>
   </si>
 </sst>
 </file>
@@ -1508,6 +1514,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Suppl. Data 2 - FISHES-BUSCO'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Missing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1650,6 +1667,130 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2004-4389-BF33-810993DDB424}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Suppl. Data 2 - FISHES-BUSCO'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fragmented</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.0" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Suppl. Data 2 - FISHES-BUSCO'!$E$2:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0" formatCode="0.0000">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3089</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2216400000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3307199999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5925</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.41798</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.90489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.13002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.3917999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E793-4FB2-B3BE-6F4B862FCEEE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1836,6 +1977,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -2444,6 +2616,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Suppl. Data 3 - AMPHIBIA-BUSCO'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Missing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2574,6 +2757,124 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E1A6-4AE6-8D13-9050435853D2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Suppl. Data 3 - AMPHIBIA-BUSCO'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fragmented</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.0" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Suppl. Data 3 - AMPHIBIA-BUSCO'!$E$2:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1655099999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.81748</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4694499999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.20418</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4748600000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.7672100000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-41B7-45EB-8132-392BD10188CA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2683,7 +2984,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE"/>
-                  <a:t>Missing BUSCO genes (vertebrata_odb9) [%]</a:t>
+                  <a:t> Missing or fragmented BUSCO genes (vertebrata_odb9) [%]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2760,6 +3061,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -3356,6 +3688,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Suppl. Data 4 - BIRDS-BUSCO'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Missing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -3486,6 +3829,124 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-AD85-46EF-A1CB-3DCBDC5CF510}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Suppl. Data 4 - BIRDS-BUSCO'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fragmented</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.0" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Suppl. Data 4 - BIRDS-BUSCO'!$E$2:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97660199999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5056</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.42116</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.79044</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9125099999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.2176999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C707-47BF-A61D-296C2879C947}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3672,6 +4133,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -4268,6 +4760,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Suppl. Data 5 - MAMMALS-BUSCO'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M:</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -4428,6 +4931,139 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-287D-41CB-A52D-00173F2EB973}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Suppl. Data 5 - MAMMALS-BUSCO'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F:</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.0" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Suppl. Data 5 - MAMMALS-BUSCO'!$E$2:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0" formatCode="0.0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.31432900000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.336007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.455235</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1164099999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3765400000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.46326</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3223499999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.36571</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8968100000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0730500000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.6767799999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-61A8-48D5-B08C-26D11B1B45C2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10110,17 +10746,17 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>236</v>
       </c>
@@ -10138,7 +10774,7 @@
       <c r="M1" s="16"/>
       <c r="N1" s="16"/>
     </row>
-    <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14"/>
       <c r="B2" s="14" t="s">
         <v>241</v>
@@ -10153,7 +10789,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>237</v>
       </c>
@@ -10171,7 +10807,7 @@
         <v>2.6666666666666665</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>239</v>
       </c>
@@ -10189,7 +10825,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>238</v>
       </c>
@@ -10207,7 +10843,7 @@
         <v>3.4285714285714284</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>240</v>
       </c>
@@ -10241,30 +10877,30 @@
       <selection sqref="A1:S1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.44140625" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="66.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="44.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="55.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="2.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="66.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="44.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="55.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.85546875" style="8" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="25" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="2.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="2.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>235</v>
       </c>
@@ -10287,7 +10923,7 @@
       <c r="R1" s="16"/>
       <c r="S1" s="16"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B2" s="17" t="s">
         <v>193</v>
       </c>
@@ -10316,12 +10952,12 @@
         <v>199</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>112</v>
       </c>
@@ -10378,7 +11014,7 @@
       </c>
       <c r="S4" s="9"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>112</v>
       </c>
@@ -10435,7 +11071,7 @@
       </c>
       <c r="S5" s="9"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>112</v>
       </c>
@@ -10492,7 +11128,7 @@
       </c>
       <c r="S6" s="9"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>112</v>
       </c>
@@ -10549,7 +11185,7 @@
       </c>
       <c r="S7" s="9"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>112</v>
       </c>
@@ -10606,7 +11242,7 @@
       </c>
       <c r="S8" s="9"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>112</v>
       </c>
@@ -10663,12 +11299,12 @@
       </c>
       <c r="S9" s="9"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>112</v>
       </c>
@@ -10725,7 +11361,7 @@
       </c>
       <c r="S12" s="9"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>112</v>
       </c>
@@ -10782,7 +11418,7 @@
       </c>
       <c r="S13" s="9"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>112</v>
       </c>
@@ -10839,7 +11475,7 @@
       </c>
       <c r="S14" s="9"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>112</v>
       </c>
@@ -10896,7 +11532,7 @@
       </c>
       <c r="S15" s="9"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>112</v>
       </c>
@@ -10953,7 +11589,7 @@
       </c>
       <c r="S16" s="9"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>112</v>
       </c>
@@ -11010,12 +11646,12 @@
       </c>
       <c r="S17" s="9"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>112</v>
       </c>
@@ -11072,7 +11708,7 @@
       </c>
       <c r="S20" s="9"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>112</v>
       </c>
@@ -11129,7 +11765,7 @@
       </c>
       <c r="S21" s="9"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>112</v>
       </c>
@@ -11186,7 +11822,7 @@
       </c>
       <c r="S22" s="9"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>112</v>
       </c>
@@ -11243,7 +11879,7 @@
       </c>
       <c r="S23" s="9"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>112</v>
       </c>
@@ -11300,7 +11936,7 @@
       </c>
       <c r="S24" s="9"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>112</v>
       </c>
@@ -11357,7 +11993,7 @@
       </c>
       <c r="S25" s="9"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>112</v>
       </c>
@@ -11414,7 +12050,7 @@
       </c>
       <c r="S26" s="9"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>112</v>
       </c>
@@ -11471,7 +12107,7 @@
       </c>
       <c r="S27" s="9"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="11"/>
@@ -11492,7 +12128,7 @@
       <c r="R28" s="9"/>
       <c r="S28" s="9"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>191</v>
       </c>
@@ -11515,7 +12151,7 @@
       <c r="R29" s="9"/>
       <c r="S29" s="9"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>112</v>
       </c>
@@ -11572,7 +12208,7 @@
       </c>
       <c r="S30" s="9"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>112</v>
       </c>
@@ -11629,7 +12265,7 @@
       </c>
       <c r="S31" s="9"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>112</v>
       </c>
@@ -11686,7 +12322,7 @@
       </c>
       <c r="S32" s="9"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>112</v>
       </c>
@@ -11743,7 +12379,7 @@
       </c>
       <c r="S33" s="9"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>112</v>
       </c>
@@ -11800,7 +12436,7 @@
       </c>
       <c r="S34" s="9"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>112</v>
       </c>
@@ -11857,7 +12493,7 @@
       </c>
       <c r="S35" s="9"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>112</v>
       </c>
@@ -11914,7 +12550,7 @@
       </c>
       <c r="S36" s="9"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>112</v>
       </c>
@@ -11971,7 +12607,7 @@
       </c>
       <c r="S37" s="9"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>112</v>
       </c>
@@ -12028,7 +12664,7 @@
       </c>
       <c r="S38" s="9"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>112</v>
       </c>
@@ -12085,7 +12721,7 @@
       </c>
       <c r="S39" s="9"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>112</v>
       </c>
@@ -12161,16 +12797,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -12184,10 +12822,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>4</v>
+        <v>250</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>5</v>
+        <v>249</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>35</v>
@@ -12199,7 +12837,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -12228,7 +12866,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -12257,7 +12895,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -12286,7 +12924,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -12315,7 +12953,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -12344,7 +12982,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -12373,7 +13011,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -12402,7 +13040,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -12431,7 +13069,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -12476,14 +13114,14 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -12497,10 +13135,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>4</v>
+        <v>250</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>5</v>
+        <v>249</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>35</v>
@@ -12512,7 +13150,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -12535,7 +13173,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -12564,7 +13202,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -12593,7 +13231,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -12622,7 +13260,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -12651,7 +13289,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -12680,7 +13318,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -12725,14 +13363,14 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -12746,10 +13384,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>4</v>
+        <v>250</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>5</v>
+        <v>249</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>35</v>
@@ -12761,7 +13399,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -12790,7 +13428,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -12819,7 +13457,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -12848,7 +13486,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -12877,7 +13515,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>220</v>
       </c>
@@ -12906,7 +13544,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -12935,7 +13573,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -12979,15 +13617,15 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -13016,7 +13654,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -13045,7 +13683,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -13074,7 +13712,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -13103,7 +13741,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -13132,7 +13770,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -13161,7 +13799,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -13190,7 +13828,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -13219,7 +13857,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -13248,7 +13886,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -13277,7 +13915,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -13306,7 +13944,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -13335,7 +13973,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>

--- a/HANNO-V0.4-BUSCO-results.xlsx
+++ b/HANNO-V0.4-BUSCO-results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuhl\Desktop\HANNO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuhl\Desktop\HANNO-bioRxiv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710E0A5C-86EB-40F3-8285-1A5C4D11A8C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED64964D-F7E2-4FE9-8910-2EFAD7908663}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="861" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" tabRatio="908" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="6" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="252">
   <si>
     <t>#name</t>
   </si>
@@ -813,14 +813,24 @@
   <si>
     <t>#threads used per annotation</t>
   </si>
+  <si>
+    <t>UTR length</t>
+  </si>
+  <si>
+    <t>CDS length</t>
+  </si>
+  <si>
+    <t>mRNA length</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -1321,7 +1331,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1354,6 +1364,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2232,6 +2243,577 @@
               <a:rPr lang="de-DE" sz="1100" b="0" i="1" baseline="0">
                 <a:effectLst/>
               </a:rPr>
+              <a:t>B.bufo </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1100" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Refseq annotation (protein &amp; mRNA) to diverged amphibia genomes by HANNO </a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE" sz="1100">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Suppl. Data 2 - FISHES-BUSCO'!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CDS length</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr>
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Suppl. Data 2 - FISHES-BUSCO'!$I$3:$I$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Perca flavescens                (0 MYA)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sander vitreus                 (31 MYA)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Epinephelus fuscoguttatus               (77 MYA)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Dicentrarchus labrax            (104 MYA)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Oreochromis niloticus      (112 MYA)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Esox lucius                     (205 MYA)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Danio rerio                      (224 MYA)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Clarias gariepinus          (224 MYA)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Suppl. Data 2 - FISHES-BUSCO'!$M$3:$M$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92236815084321799</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93350341887012611</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.92794211584138298</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9773468372199352</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.86162460125174989</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.78652846715166858</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.76472344874960629</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5003-4FAD-BA6D-6BDE72167370}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Suppl. Data 2 - FISHES-BUSCO'!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>UTR length</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="0.0%" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Suppl. Data 2 - FISHES-BUSCO'!$I$3:$I$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Perca flavescens                (0 MYA)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sander vitreus                 (31 MYA)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Epinephelus fuscoguttatus               (77 MYA)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Dicentrarchus labrax            (104 MYA)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Oreochromis niloticus      (112 MYA)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Esox lucius                     (205 MYA)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Danio rerio                      (224 MYA)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Clarias gariepinus          (224 MYA)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Suppl. Data 2 - FISHES-BUSCO'!$N$3:$N$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92658923044157926</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78220467382784364</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.74449446446346157</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5291219714941755</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.22134455784680435</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.20938917389330963</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.20895808916106107</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5003-4FAD-BA6D-6BDE72167370}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="135202687"/>
+        <c:axId val="240816095"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="135202687"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="240816095"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="240816095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>%</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:t> of maximum</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="135202687"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr rot="1200000"/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1100" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Transfer of </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1100" b="0" i="1" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
               <a:t>B. bufo </a:t>
             </a:r>
             <a:r>
@@ -2979,7 +3561,554 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1100" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Transfer of </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1100" b="0" i="1" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>B.bufo </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1100" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Refseq annotation (protein &amp; mRNA) to diverged amphibia genomes by HANNO </a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE" sz="1100">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Suppl. Data 3 - AMPHIBIA-BUSCO'!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CDS length</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr>
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Suppl. Data 3 - AMPHIBIA-BUSCO'!$I$3:$I$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Bufo bufo                             (0 MYA)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bufotes viridis                 (31,9 MYA)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Leptodactylus fuscus        (68 MYA)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Spea bombifrons            (192 MYA)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Xenopus tropicalis       (202 MYA)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Bombina bombina       (210 MYA)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Suppl. Data 3 - AMPHIBIA-BUSCO'!$M$3:$M$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.90384611641115786</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.85392707333351003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.74741560018106556</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.76574504701311408</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.80766018846573862</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-31CC-48D6-B1B3-3F2C646A4500}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Suppl. Data 3 - AMPHIBIA-BUSCO'!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>UTR length</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="0.0%" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Suppl. Data 3 - AMPHIBIA-BUSCO'!$I$3:$I$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Bufo bufo                             (0 MYA)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bufotes viridis                 (31,9 MYA)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Leptodactylus fuscus        (68 MYA)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Spea bombifrons            (192 MYA)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Xenopus tropicalis       (202 MYA)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Bombina bombina       (210 MYA)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Suppl. Data 3 - AMPHIBIA-BUSCO'!$N$3:$N$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97809874699026511</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.50363407172489438</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20315267251567279</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.22274061209287177</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.32179734749598199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-31CC-48D6-B1B3-3F2C646A4500}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="135202687"/>
+        <c:axId val="240816095"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="135202687"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="240816095"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="240816095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>%</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:t> of maximum</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="135202687"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr rot="1200000"/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -3769,7 +4898,549 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1100" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Transfer of </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1100" b="0" i="1" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>T. guttata </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1100" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Refseq annotation (protein &amp; mRNA) to diverged bird genomes by HANNO </a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE" sz="1100">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Suppl. Data 4 - BIRDS-BUSCO'!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CDS length</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr>
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Suppl. Data 4 - BIRDS-BUSCO'!$I$3:$I$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Taeniopygia guttata               (0 MYA)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Serinus canaria                    (24 MYA)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Myiozetetes cayanensis     (26 MYA)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Phaethornis superciliosus                    (76 MYA)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Gallus gallus                         (91 MYA)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Dromaius novaehollandiae (108 MYA)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Suppl. Data 4 - BIRDS-BUSCO'!$M$3:$M$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92339611447953052</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.90285088601618002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.84199150384004873</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.86265695919155916</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.86680587807949738</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2C37-48C0-877C-C897B80D78FE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Suppl. Data 4 - BIRDS-BUSCO'!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>UTR length</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="0.0%" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Suppl. Data 4 - BIRDS-BUSCO'!$I$3:$I$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Taeniopygia guttata               (0 MYA)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Serinus canaria                    (24 MYA)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Myiozetetes cayanensis     (26 MYA)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Phaethornis superciliosus                    (76 MYA)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Gallus gallus                         (91 MYA)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Dromaius novaehollandiae (108 MYA)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Suppl. Data 4 - BIRDS-BUSCO'!$N$3:$N$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96109536850822253</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.88916825717182035</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.68195029110418082</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.49204983366939864</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.61260332262864536</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2C37-48C0-877C-C897B80D78FE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="135202687"/>
+        <c:axId val="240816095"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="135202687"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="240816095"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="240816095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>% of maximum</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="135202687"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr rot="1200000"/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -4662,6 +6333,608 @@
     </a:ln>
     <a:effectLst/>
   </c:spPr>
+  <c:txPr>
+    <a:bodyPr rot="1200000"/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1100" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Transfer of </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1100" b="0" i="1" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>H. sapiens </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1100" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Refseq annotation (protein &amp; mRNA) to diverged mammal genomes by HANNO </a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE" sz="1100">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Suppl. Data 5 - MAMMALS-BUSCO'!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CDS length</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr>
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Suppl. Data 5 - MAMMALS-BUSCO'!$I$3:$I$13</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Homo sapiens               (0 MYA)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Pan paniscus              (6,4 MYA)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Pongo abelii             (15,2 MYA)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Callithrix jacchus         (43 MYA)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mus musculus              (87 MYA)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Capra hircus                   (94 MYA)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Bos taurus                      (94 MYA)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Orcinus orca               (94 MYA)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Rhinolophus ferrumequinum          (94 MYA)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Elephas maximus indicus                            (99 MYA)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Phascolarctos cinereus             (160 MYA)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Suppl. Data 5 - MAMMALS-BUSCO'!$M$3:$M$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99513923279605232</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98349326945026294</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94586410677024824</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.82085494820503968</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.83342527181293946</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.83791610833206609</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.81939876324744743</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.81368848305670816</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.8494882290639505</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.70351702538700456</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C278-4F4E-9358-37C874C62D48}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Suppl. Data 5 - MAMMALS-BUSCO'!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>UTR length</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="0.0%" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Suppl. Data 5 - MAMMALS-BUSCO'!$I$3:$I$13</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Homo sapiens               (0 MYA)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Pan paniscus              (6,4 MYA)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Pongo abelii             (15,2 MYA)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Callithrix jacchus         (43 MYA)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mus musculus              (87 MYA)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Capra hircus                   (94 MYA)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Bos taurus                      (94 MYA)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Orcinus orca               (94 MYA)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Rhinolophus ferrumequinum          (94 MYA)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Elephas maximus indicus                            (99 MYA)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Phascolarctos cinereus             (160 MYA)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Suppl. Data 5 - MAMMALS-BUSCO'!$N$3:$N$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98036881854711877</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.96587237874785148</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.87952553459604066</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.20756941785783503</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.4193652089019117</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.42806131789977347</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.53980506069160306</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.51051763648660675</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.44493160131391246</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.13678790276396599</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C278-4F4E-9358-37C874C62D48}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="135202687"/>
+        <c:axId val="240816095"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="135202687"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="240816095"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="240816095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>BUSCO genes (mammalia_odb10) [%]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="135202687"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
   <c:txPr>
     <a:bodyPr rot="1200000"/>
     <a:lstStyle/>
@@ -6892,6 +9165,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>794656</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>478971</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA9A5A3F-0F37-47E6-B180-F8BEAA23D455}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6930,6 +9241,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2405743</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9025165E-B3BA-4104-8721-1FBFAEB007D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6978,6 +9327,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2558143</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50430386-B928-4527-BEBB-E8A9A103E220}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7016,6 +9403,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>576942</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04189CBD-BCBE-4686-96F2-A8289618AE33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7327,16 +9752,16 @@
       <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>223</v>
       </c>
@@ -7354,7 +9779,7 @@
       <c r="M1" s="16"/>
       <c r="N1" s="16"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="14"/>
       <c r="B2" s="14" t="s">
         <v>248</v>
@@ -7369,7 +9794,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>224</v>
       </c>
@@ -7387,7 +9812,7 @@
         <v>2.6666666666666665</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>226</v>
       </c>
@@ -7405,7 +9830,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>225</v>
       </c>
@@ -7423,7 +9848,7 @@
         <v>3.4285714285714284</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>227</v>
       </c>
@@ -7457,30 +9882,30 @@
       <selection sqref="A1:S1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.42578125" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="66.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="44.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="55.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.44140625" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="66.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="44.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="55.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.88671875" style="8" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="25" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="2.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="2.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>222</v>
       </c>
@@ -7503,7 +9928,7 @@
       <c r="R1" s="16"/>
       <c r="S1" s="16"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B2" s="17" t="s">
         <v>182</v>
       </c>
@@ -7532,12 +9957,12 @@
         <v>188</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>101</v>
       </c>
@@ -7594,7 +10019,7 @@
       </c>
       <c r="S4" s="9"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>101</v>
       </c>
@@ -7651,7 +10076,7 @@
       </c>
       <c r="S5" s="9"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>101</v>
       </c>
@@ -7708,7 +10133,7 @@
       </c>
       <c r="S6" s="9"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>101</v>
       </c>
@@ -7765,7 +10190,7 @@
       </c>
       <c r="S7" s="9"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>101</v>
       </c>
@@ -7822,7 +10247,7 @@
       </c>
       <c r="S8" s="9"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>101</v>
       </c>
@@ -7879,12 +10304,12 @@
       </c>
       <c r="S9" s="9"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>101</v>
       </c>
@@ -7941,7 +10366,7 @@
       </c>
       <c r="S12" s="9"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>101</v>
       </c>
@@ -7998,7 +10423,7 @@
       </c>
       <c r="S13" s="9"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>101</v>
       </c>
@@ -8055,7 +10480,7 @@
       </c>
       <c r="S14" s="9"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>101</v>
       </c>
@@ -8112,7 +10537,7 @@
       </c>
       <c r="S15" s="9"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>101</v>
       </c>
@@ -8169,7 +10594,7 @@
       </c>
       <c r="S16" s="9"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>101</v>
       </c>
@@ -8226,12 +10651,12 @@
       </c>
       <c r="S17" s="9"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>101</v>
       </c>
@@ -8288,7 +10713,7 @@
       </c>
       <c r="S20" s="9"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>101</v>
       </c>
@@ -8345,7 +10770,7 @@
       </c>
       <c r="S21" s="9"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>101</v>
       </c>
@@ -8402,7 +10827,7 @@
       </c>
       <c r="S22" s="9"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>101</v>
       </c>
@@ -8459,7 +10884,7 @@
       </c>
       <c r="S23" s="9"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>101</v>
       </c>
@@ -8516,7 +10941,7 @@
       </c>
       <c r="S24" s="9"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>101</v>
       </c>
@@ -8573,7 +10998,7 @@
       </c>
       <c r="S25" s="9"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>101</v>
       </c>
@@ -8630,7 +11055,7 @@
       </c>
       <c r="S26" s="9"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>101</v>
       </c>
@@ -8687,7 +11112,7 @@
       </c>
       <c r="S27" s="9"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="11"/>
@@ -8708,7 +11133,7 @@
       <c r="R28" s="9"/>
       <c r="S28" s="9"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
         <v>180</v>
       </c>
@@ -8731,7 +11156,7 @@
       <c r="R29" s="9"/>
       <c r="S29" s="9"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>101</v>
       </c>
@@ -8788,7 +11213,7 @@
       </c>
       <c r="S30" s="9"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>101</v>
       </c>
@@ -8845,7 +11270,7 @@
       </c>
       <c r="S31" s="9"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>101</v>
       </c>
@@ -8902,7 +11327,7 @@
       </c>
       <c r="S32" s="9"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>101</v>
       </c>
@@ -8959,7 +11384,7 @@
       </c>
       <c r="S33" s="9"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>101</v>
       </c>
@@ -9016,7 +11441,7 @@
       </c>
       <c r="S34" s="9"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>101</v>
       </c>
@@ -9073,7 +11498,7 @@
       </c>
       <c r="S35" s="9"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
         <v>101</v>
       </c>
@@ -9130,7 +11555,7 @@
       </c>
       <c r="S36" s="9"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
         <v>101</v>
       </c>
@@ -9187,7 +11612,7 @@
       </c>
       <c r="S37" s="9"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
         <v>101</v>
       </c>
@@ -9244,7 +11669,7 @@
       </c>
       <c r="S38" s="9"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>101</v>
       </c>
@@ -9301,7 +11726,7 @@
       </c>
       <c r="S39" s="9"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
         <v>101</v>
       </c>
@@ -9375,18 +11800,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView topLeftCell="A42" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N55" sqref="N55"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="33.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -9414,8 +11841,23 @@
       <c r="I1" s="3" t="s">
         <v>42</v>
       </c>
+      <c r="J1" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>249</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -9444,7 +11886,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -9472,8 +11914,26 @@
       <c r="I3" t="s">
         <v>53</v>
       </c>
+      <c r="J3">
+        <v>43358184</v>
+      </c>
+      <c r="K3">
+        <v>67882365</v>
+      </c>
+      <c r="L3">
+        <f>K3-J3</f>
+        <v>24524181</v>
+      </c>
+      <c r="M3" s="18">
+        <f>J3/J$3</f>
+        <v>1</v>
+      </c>
+      <c r="N3" s="18">
+        <f>L3/L$3</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -9501,8 +11961,26 @@
       <c r="I4" t="s">
         <v>54</v>
       </c>
+      <c r="J4">
+        <v>39992208</v>
+      </c>
+      <c r="K4">
+        <v>62716050</v>
+      </c>
+      <c r="L4">
+        <f>K4-J4</f>
+        <v>22723842</v>
+      </c>
+      <c r="M4" s="18">
+        <f>J4/J$3</f>
+        <v>0.92236815084321799</v>
+      </c>
+      <c r="N4" s="18">
+        <f t="shared" ref="N4:N8" si="0">L4/L$3</f>
+        <v>0.92658923044157926</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -9530,8 +12008,26 @@
       <c r="I5" t="s">
         <v>215</v>
       </c>
+      <c r="J5">
+        <v>40475013</v>
+      </c>
+      <c r="K5">
+        <v>59657942</v>
+      </c>
+      <c r="L5">
+        <f>K5-J5</f>
+        <v>19182929</v>
+      </c>
+      <c r="M5" s="18">
+        <f>J5/J$3</f>
+        <v>0.93350341887012611</v>
+      </c>
+      <c r="N5" s="18">
+        <f t="shared" si="0"/>
+        <v>0.78220467382784364</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -9559,8 +12055,26 @@
       <c r="I6" t="s">
         <v>245</v>
       </c>
+      <c r="J6">
+        <v>40233885</v>
+      </c>
+      <c r="K6">
+        <v>58492002</v>
+      </c>
+      <c r="L6">
+        <f>K6-J6</f>
+        <v>18258117</v>
+      </c>
+      <c r="M6" s="18">
+        <f>J6/J$3</f>
+        <v>0.92794211584138298</v>
+      </c>
+      <c r="N6" s="18">
+        <f t="shared" si="0"/>
+        <v>0.74449446446346157</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -9588,8 +12102,26 @@
       <c r="I7" t="s">
         <v>55</v>
       </c>
+      <c r="J7">
+        <v>42375984</v>
+      </c>
+      <c r="K7">
+        <v>55352267</v>
+      </c>
+      <c r="L7">
+        <f>K7-J7</f>
+        <v>12976283</v>
+      </c>
+      <c r="M7" s="18">
+        <f>J7/J$3</f>
+        <v>0.9773468372199352</v>
+      </c>
+      <c r="N7" s="18">
+        <f t="shared" si="0"/>
+        <v>0.5291219714941755</v>
+      </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -9617,8 +12149,26 @@
       <c r="I8" t="s">
         <v>56</v>
       </c>
+      <c r="J8">
+        <v>37358478</v>
+      </c>
+      <c r="K8">
+        <v>42786772</v>
+      </c>
+      <c r="L8">
+        <f>K8-J8</f>
+        <v>5428294</v>
+      </c>
+      <c r="M8" s="18">
+        <f>J8/J$3</f>
+        <v>0.86162460125174989</v>
+      </c>
+      <c r="N8" s="18">
+        <f t="shared" si="0"/>
+        <v>0.22134455784680435</v>
+      </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -9646,8 +12196,26 @@
       <c r="I9" t="s">
         <v>57</v>
       </c>
+      <c r="J9">
+        <v>34102446</v>
+      </c>
+      <c r="K9">
+        <v>39237544</v>
+      </c>
+      <c r="L9">
+        <f t="shared" ref="L9:L10" si="1">K9-J9</f>
+        <v>5135098</v>
+      </c>
+      <c r="M9" s="18">
+        <f t="shared" ref="M9:M10" si="2">J9/J$3</f>
+        <v>0.78652846715166858</v>
+      </c>
+      <c r="N9" s="18">
+        <f t="shared" ref="N9:N10" si="3">L9/L$3</f>
+        <v>0.20938917389330963</v>
+      </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -9674,6 +12242,24 @@
       </c>
       <c r="I10" t="s">
         <v>58</v>
+      </c>
+      <c r="J10">
+        <v>33157020</v>
+      </c>
+      <c r="K10">
+        <v>38281546</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>5124526</v>
+      </c>
+      <c r="M10" s="18">
+        <f t="shared" si="2"/>
+        <v>0.76472344874960629</v>
+      </c>
+      <c r="N10" s="18">
+        <f t="shared" si="3"/>
+        <v>0.20895808916106107</v>
       </c>
     </row>
   </sheetData>
@@ -9688,18 +12274,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView topLeftCell="A47" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -9727,8 +12316,23 @@
       <c r="I1" s="3" t="s">
         <v>42</v>
       </c>
+      <c r="J1" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>249</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -9751,7 +12355,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -9779,8 +12383,26 @@
       <c r="I3" s="4" t="s">
         <v>243</v>
       </c>
+      <c r="J3">
+        <v>40069458</v>
+      </c>
+      <c r="K3">
+        <v>58381287</v>
+      </c>
+      <c r="L3">
+        <f>K3-J3</f>
+        <v>18311829</v>
+      </c>
+      <c r="M3" s="18">
+        <f>J3/J$3</f>
+        <v>1</v>
+      </c>
+      <c r="N3" s="18">
+        <f>L3/L$3</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -9808,8 +12430,26 @@
       <c r="I4" t="s">
         <v>244</v>
       </c>
+      <c r="J4">
+        <v>36216624</v>
+      </c>
+      <c r="K4">
+        <v>54127401</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L8" si="0">K4-J4</f>
+        <v>17910777</v>
+      </c>
+      <c r="M4" s="18">
+        <f t="shared" ref="M4:M8" si="1">J4/J$3</f>
+        <v>0.90384611641115786</v>
+      </c>
+      <c r="N4" s="18">
+        <f t="shared" ref="N4:N8" si="2">L4/L$3</f>
+        <v>0.97809874699026511</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -9837,8 +12477,26 @@
       <c r="I5" t="s">
         <v>238</v>
       </c>
+      <c r="J5">
+        <v>34216395</v>
+      </c>
+      <c r="K5">
+        <v>43438856</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>9222461</v>
+      </c>
+      <c r="M5" s="18">
+        <f t="shared" si="1"/>
+        <v>0.85392707333351003</v>
+      </c>
+      <c r="N5" s="18">
+        <f t="shared" si="2"/>
+        <v>0.50363407172489438</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -9866,8 +12524,26 @@
       <c r="I6" t="s">
         <v>239</v>
       </c>
+      <c r="J6">
+        <v>29948538</v>
+      </c>
+      <c r="K6">
+        <v>33668635</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>3720097</v>
+      </c>
+      <c r="M6" s="18">
+        <f>J6/J$3</f>
+        <v>0.74741560018106556</v>
+      </c>
+      <c r="N6" s="18">
+        <f t="shared" si="2"/>
+        <v>0.20315267251567279</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -9895,8 +12571,26 @@
       <c r="I7" t="s">
         <v>241</v>
       </c>
+      <c r="J7">
+        <v>30682989</v>
+      </c>
+      <c r="K7">
+        <v>34761777</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>4078788</v>
+      </c>
+      <c r="M7" s="18">
+        <f t="shared" si="1"/>
+        <v>0.76574504701311408</v>
+      </c>
+      <c r="N7" s="18">
+        <f t="shared" si="2"/>
+        <v>0.22274061209287177</v>
+      </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -9923,6 +12617,24 @@
       </c>
       <c r="I8" t="s">
         <v>240</v>
+      </c>
+      <c r="J8">
+        <v>32362506</v>
+      </c>
+      <c r="K8">
+        <v>38255204</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>5892698</v>
+      </c>
+      <c r="M8" s="18">
+        <f t="shared" si="1"/>
+        <v>0.80766018846573862</v>
+      </c>
+      <c r="N8" s="18">
+        <f t="shared" si="2"/>
+        <v>0.32179734749598199</v>
       </c>
     </row>
   </sheetData>
@@ -9937,18 +12649,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView topLeftCell="A42" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M54" sqref="M54"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -9976,8 +12693,23 @@
       <c r="I1" s="3" t="s">
         <v>42</v>
       </c>
+      <c r="J1" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>249</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -10006,7 +12738,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -10034,8 +12766,26 @@
       <c r="I3" t="s">
         <v>219</v>
       </c>
+      <c r="J3">
+        <v>31615224</v>
+      </c>
+      <c r="K3">
+        <v>72585436</v>
+      </c>
+      <c r="L3">
+        <f>K3-J3</f>
+        <v>40970212</v>
+      </c>
+      <c r="M3" s="18">
+        <f>J3/J$3</f>
+        <v>1</v>
+      </c>
+      <c r="N3" s="18">
+        <f>L3/L$3</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -10063,8 +12813,26 @@
       <c r="I4" t="s">
         <v>218</v>
       </c>
+      <c r="J4">
+        <v>29193375</v>
+      </c>
+      <c r="K4">
+        <v>68569656</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L8" si="0">K4-J4</f>
+        <v>39376281</v>
+      </c>
+      <c r="M4" s="18">
+        <f t="shared" ref="M4:M8" si="1">J4/J$3</f>
+        <v>0.92339611447953052</v>
+      </c>
+      <c r="N4" s="18">
+        <f t="shared" ref="N4:N8" si="2">L4/L$3</f>
+        <v>0.96109536850822253</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -10092,8 +12860,26 @@
       <c r="I5" t="s">
         <v>217</v>
       </c>
+      <c r="J5">
+        <v>28543833</v>
+      </c>
+      <c r="K5">
+        <v>64973245</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>36429412</v>
+      </c>
+      <c r="M5" s="18">
+        <f t="shared" si="1"/>
+        <v>0.90285088601618002</v>
+      </c>
+      <c r="N5" s="18">
+        <f t="shared" si="2"/>
+        <v>0.88916825717182035</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>209</v>
       </c>
@@ -10121,8 +12907,26 @@
       <c r="I6" t="s">
         <v>213</v>
       </c>
+      <c r="J6">
+        <v>26619750</v>
+      </c>
+      <c r="K6">
+        <v>54559398</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>27939648</v>
+      </c>
+      <c r="M6" s="18">
+        <f>J6/J$3</f>
+        <v>0.84199150384004873</v>
+      </c>
+      <c r="N6" s="18">
+        <f t="shared" si="2"/>
+        <v>0.68195029110418082</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -10150,8 +12954,26 @@
       <c r="I7" t="s">
         <v>216</v>
       </c>
+      <c r="J7">
+        <v>27273093</v>
+      </c>
+      <c r="K7">
+        <v>47432479</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>20159386</v>
+      </c>
+      <c r="M7" s="18">
+        <f t="shared" si="1"/>
+        <v>0.86265695919155916</v>
+      </c>
+      <c r="N7" s="18">
+        <f t="shared" si="2"/>
+        <v>0.49204983366939864</v>
+      </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -10178,6 +13000,24 @@
       </c>
       <c r="I8" t="s">
         <v>64</v>
+      </c>
+      <c r="J8">
+        <v>27404262</v>
+      </c>
+      <c r="K8">
+        <v>52502750</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>25098488</v>
+      </c>
+      <c r="M8" s="18">
+        <f t="shared" si="1"/>
+        <v>0.86680587807949738</v>
+      </c>
+      <c r="N8" s="18">
+        <f t="shared" si="2"/>
+        <v>0.61260332262864536</v>
       </c>
     </row>
   </sheetData>
@@ -10191,19 +13031,22 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3:N3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="45.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -10231,8 +13074,23 @@
       <c r="I1" s="3" t="s">
         <v>42</v>
       </c>
+      <c r="J1" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>249</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -10261,7 +13119,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -10289,8 +13147,26 @@
       <c r="I3" t="s">
         <v>85</v>
       </c>
+      <c r="J3">
+        <v>41805129</v>
+      </c>
+      <c r="K3">
+        <v>122380361</v>
+      </c>
+      <c r="L3">
+        <f>K3-J3</f>
+        <v>80575232</v>
+      </c>
+      <c r="M3" s="18">
+        <f>J3/J$3</f>
+        <v>1</v>
+      </c>
+      <c r="N3" s="18">
+        <f>L3/L$3</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -10318,8 +13194,26 @@
       <c r="I4" t="s">
         <v>84</v>
       </c>
+      <c r="J4">
+        <v>41601924</v>
+      </c>
+      <c r="K4">
+        <v>120595369</v>
+      </c>
+      <c r="L4">
+        <f>K4-J4</f>
+        <v>78993445</v>
+      </c>
+      <c r="M4" s="18">
+        <f t="shared" ref="M4:M13" si="0">J4/J$3</f>
+        <v>0.99513923279605232</v>
+      </c>
+      <c r="N4" s="18">
+        <f>L4/L$3</f>
+        <v>0.98036881854711877</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -10347,8 +13241,26 @@
       <c r="I5" t="s">
         <v>83</v>
       </c>
+      <c r="J5">
+        <v>41115063</v>
+      </c>
+      <c r="K5">
+        <v>118940454</v>
+      </c>
+      <c r="L5">
+        <f t="shared" ref="L5:L13" si="1">K5-J5</f>
+        <v>77825391</v>
+      </c>
+      <c r="M5" s="18">
+        <f t="shared" si="0"/>
+        <v>0.98349326945026294</v>
+      </c>
+      <c r="N5" s="18">
+        <f>L5/L$3</f>
+        <v>0.96587237874785148</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -10376,8 +13288,26 @@
       <c r="I6" t="s">
         <v>82</v>
       </c>
+      <c r="J6">
+        <v>39541971</v>
+      </c>
+      <c r="K6">
+        <v>110409945</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>70867974</v>
+      </c>
+      <c r="M6" s="18">
+        <f t="shared" si="0"/>
+        <v>0.94586410677024824</v>
+      </c>
+      <c r="N6" s="18">
+        <f>L6/L$3</f>
+        <v>0.87952553459604066</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -10405,8 +13335,26 @@
       <c r="I7" t="s">
         <v>81</v>
       </c>
+      <c r="J7">
+        <v>34315947</v>
+      </c>
+      <c r="K7">
+        <v>51040901</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>16724954</v>
+      </c>
+      <c r="M7" s="18">
+        <f t="shared" si="0"/>
+        <v>0.82085494820503968</v>
+      </c>
+      <c r="N7" s="18">
+        <f>L7/L$3</f>
+        <v>0.20756941785783503</v>
+      </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -10434,8 +13382,26 @@
       <c r="I8" t="s">
         <v>80</v>
       </c>
+      <c r="J8">
+        <v>34841451</v>
+      </c>
+      <c r="K8">
+        <v>68631900</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>33790449</v>
+      </c>
+      <c r="M8" s="18">
+        <f t="shared" si="0"/>
+        <v>0.83342527181293946</v>
+      </c>
+      <c r="N8" s="18">
+        <f>L8/L$3</f>
+        <v>0.4193652089019117</v>
+      </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -10463,8 +13429,26 @@
       <c r="I9" t="s">
         <v>220</v>
       </c>
+      <c r="J9">
+        <v>35029191</v>
+      </c>
+      <c r="K9">
+        <v>69520331</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>34491140</v>
+      </c>
+      <c r="M9" s="18">
+        <f t="shared" si="0"/>
+        <v>0.83791610833206609</v>
+      </c>
+      <c r="N9" s="18">
+        <f>L9/L$3</f>
+        <v>0.42806131789977347</v>
+      </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -10492,8 +13476,26 @@
       <c r="I10" t="s">
         <v>79</v>
       </c>
+      <c r="J10">
+        <v>34255071</v>
+      </c>
+      <c r="K10">
+        <v>77749989</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>43494918</v>
+      </c>
+      <c r="M10" s="18">
+        <f t="shared" si="0"/>
+        <v>0.81939876324744743</v>
+      </c>
+      <c r="N10" s="18">
+        <f>L10/L$3</f>
+        <v>0.53980506069160306</v>
+      </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -10521,8 +13523,26 @@
       <c r="I11" t="s">
         <v>78</v>
       </c>
+      <c r="J11">
+        <v>34016352</v>
+      </c>
+      <c r="K11">
+        <v>75151429</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>41135077</v>
+      </c>
+      <c r="M11" s="18">
+        <f t="shared" si="0"/>
+        <v>0.81368848305670816</v>
+      </c>
+      <c r="N11" s="18">
+        <f>L11/L$3</f>
+        <v>0.51051763648660675</v>
+      </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -10550,8 +13570,26 @@
       <c r="I12" t="s">
         <v>221</v>
       </c>
+      <c r="J12">
+        <v>35512965</v>
+      </c>
+      <c r="K12">
+        <v>71363432</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>35850467</v>
+      </c>
+      <c r="M12" s="18">
+        <f t="shared" si="0"/>
+        <v>0.8494882290639505</v>
+      </c>
+      <c r="N12" s="18">
+        <f>L12/L$3</f>
+        <v>0.44493160131391246</v>
+      </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -10578,6 +13616,24 @@
       </c>
       <c r="I13" t="s">
         <v>247</v>
+      </c>
+      <c r="J13">
+        <v>29410620</v>
+      </c>
+      <c r="K13">
+        <v>40432337</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="1"/>
+        <v>11021717</v>
+      </c>
+      <c r="M13" s="18">
+        <f t="shared" si="0"/>
+        <v>0.70351702538700456</v>
+      </c>
+      <c r="N13" s="18">
+        <f>L13/L$3</f>
+        <v>0.13678790276396599</v>
       </c>
     </row>
   </sheetData>

--- a/HANNO-V0.4-BUSCO-results.xlsx
+++ b/HANNO-V0.4-BUSCO-results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuhl\Desktop\HANNO-bioRxiv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED64964D-F7E2-4FE9-8910-2EFAD7908663}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE6D3BDC-F841-403B-ABF6-FD17E8058F08}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" tabRatio="908" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="256">
   <si>
     <t>#name</t>
   </si>
@@ -189,21 +189,6 @@
     <t>Perca flavescens                (0 MYA)</t>
   </si>
   <si>
-    <t>Sander vitreus                 (31 MYA)</t>
-  </si>
-  <si>
-    <t>Oreochromis niloticus      (112 MYA)</t>
-  </si>
-  <si>
-    <t>Esox lucius                     (205 MYA)</t>
-  </si>
-  <si>
-    <t>Danio rerio                      (224 MYA)</t>
-  </si>
-  <si>
-    <t>Clarias gariepinus          (224 MYA)</t>
-  </si>
-  <si>
     <t>Taeniopygia guttata</t>
   </si>
   <si>
@@ -219,9 +204,6 @@
     <t>Dromaius novaehollandiae</t>
   </si>
   <si>
-    <t>Dromaius novaehollandiae (108 MYA)</t>
-  </si>
-  <si>
     <t>mammalia_odb10</t>
   </si>
   <si>
@@ -261,27 +243,6 @@
     <t>Homo sapiens input annotation</t>
   </si>
   <si>
-    <t>Rhinolophus ferrumequinum          (94 MYA)</t>
-  </si>
-  <si>
-    <t>Orcinus orca               (94 MYA)</t>
-  </si>
-  <si>
-    <t>Capra hircus                   (94 MYA)</t>
-  </si>
-  <si>
-    <t>Mus musculus              (87 MYA)</t>
-  </si>
-  <si>
-    <t>Callithrix jacchus         (43 MYA)</t>
-  </si>
-  <si>
-    <t>Pongo abelii             (15,2 MYA)</t>
-  </si>
-  <si>
-    <t>Pan paniscus              (6,4 MYA)</t>
-  </si>
-  <si>
     <t>Homo sapiens               (0 MYA)</t>
   </si>
   <si>
@@ -666,31 +627,10 @@
     <t>HANNO-PHASUP-V0.4.log</t>
   </si>
   <si>
-    <t>Phaethornis superciliosus                    (76 MYA)</t>
-  </si>
-  <si>
     <t>Phaethornis superciliosus</t>
   </si>
   <si>
-    <t>Epinephelus fuscoguttatus               (77 MYA)</t>
-  </si>
-  <si>
-    <t>Gallus gallus                         (91 MYA)</t>
-  </si>
-  <si>
-    <t>Myiozetetes cayanensis     (26 MYA)</t>
-  </si>
-  <si>
-    <t>Serinus canaria                    (24 MYA)</t>
-  </si>
-  <si>
     <t>Taeniopygia guttata               (0 MYA)</t>
-  </si>
-  <si>
-    <t>Bos taurus                      (94 MYA)</t>
-  </si>
-  <si>
-    <t>Elephas maximus indicus                            (99 MYA)</t>
   </si>
   <si>
     <r>
@@ -781,36 +721,15 @@
     <t>Complete</t>
   </si>
   <si>
-    <t>Leptodactylus fuscus        (68 MYA)</t>
-  </si>
-  <si>
-    <t>Spea bombifrons            (192 MYA)</t>
-  </si>
-  <si>
-    <t>Bombina bombina       (210 MYA)</t>
-  </si>
-  <si>
-    <t>Xenopus tropicalis       (202 MYA)</t>
-  </si>
-  <si>
     <t>Bufo bufo                      input annotation</t>
   </si>
   <si>
     <t>Bufo bufo                             (0 MYA)</t>
   </si>
   <si>
-    <t>Bufotes viridis                 (31,9 MYA)</t>
-  </si>
-  <si>
-    <t>Dicentrarchus labrax            (104 MYA)</t>
-  </si>
-  <si>
     <t>Taeniopygia guttata           input annotation</t>
   </si>
   <si>
-    <t>Phascolarctos cinereus             (160 MYA)</t>
-  </si>
-  <si>
     <t>#threads used per annotation</t>
   </si>
   <si>
@@ -821,6 +740,99 @@
   </si>
   <si>
     <t>mRNA length</t>
+  </si>
+  <si>
+    <t>Dicentrarchus labrax            (83.2 - 150.9 MYA)</t>
+  </si>
+  <si>
+    <t>Sander vitreus                 (17.4 - 35.7 MYA)</t>
+  </si>
+  <si>
+    <t>Epinephelus fuscoguttatus               (42.3 - 134.2 MYA)</t>
+  </si>
+  <si>
+    <t>Oreochromis niloticus      (100.0 - 130.0 MYA)</t>
+  </si>
+  <si>
+    <t>Esox lucius                     (176.6 - 264.0 MYA)</t>
+  </si>
+  <si>
+    <t>Danio rerio                      (180.0 - 251.5 MYA)</t>
+  </si>
+  <si>
+    <t>Clarias gariepinus          (180.0 - 251.5 MYA)</t>
+  </si>
+  <si>
+    <t>Bufotes viridis                 (29.4 - 42.8 MYA)</t>
+  </si>
+  <si>
+    <t>Leptodactylus fuscus        (59.7 - 130.0 MYA)</t>
+  </si>
+  <si>
+    <t>Spea bombifrons            (172.6 - 208.2 MYA)</t>
+  </si>
+  <si>
+    <t>Xenopus tropicalis       (176.7 - 210.5 MYA)</t>
+  </si>
+  <si>
+    <t>Bombina bombina       (186.8 - 223.0 MYA)</t>
+  </si>
+  <si>
+    <t>Serinus canaria                    (15.1 - 50.3 MYA)</t>
+  </si>
+  <si>
+    <t>Myiozetetes cayanensis     (54.7 - 71.3 MYA)</t>
+  </si>
+  <si>
+    <t>Phaethornis superciliosus                    (67.9 - 112.6 MYA)</t>
+  </si>
+  <si>
+    <t>Gallus gallus                         (86.5 - 101.8 MYA)</t>
+  </si>
+  <si>
+    <t>Dromaius novaehollandiae (97.0 - 118.1 MYA)</t>
+  </si>
+  <si>
+    <t>Pan paniscus              (6.0 - 6.5 MYA)</t>
+  </si>
+  <si>
+    <t>Pongo abelii             (14.5 - 16.3 MYA)</t>
+  </si>
+  <si>
+    <t>Callithrix jacchus         (40.0 - 44.2 MYA)</t>
+  </si>
+  <si>
+    <t>Mus musculus              (81.3 - 91.0 MYA)</t>
+  </si>
+  <si>
+    <t>Capra hircus                   (91.5 - 97.4 MYA)</t>
+  </si>
+  <si>
+    <t>Bos taurus                      (91.5 - 97.4 MYA)</t>
+  </si>
+  <si>
+    <t>Orcinus orca               (91.5 - 97.4 MYA)</t>
+  </si>
+  <si>
+    <t>Rhinolophus ferrumequinum          (91.5 - 97.4 MYA)</t>
+  </si>
+  <si>
+    <t>Elephas maximus indicus                            (94.7 - 101.9 MYA)</t>
+  </si>
+  <si>
+    <t>Phascolarctos cinereus             (147.1 - 164.3 MYA)</t>
+  </si>
+  <si>
+    <t>ESOLUC RNAseq-</t>
+  </si>
+  <si>
+    <t>ESOLUC RNAseq+</t>
+  </si>
+  <si>
+    <t>Esox lucius                    +diverged evidence       (176.6 - 264.0 MYA)</t>
+  </si>
+  <si>
+    <t>Esox lucius                    +diverged evidence       (176.6 - 264.0 MYA) +RNAseq (E. lucius)</t>
   </si>
 </sst>
 </file>
@@ -1358,13 +1370,13 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1609,25 +1621,25 @@
                   <c:v>Perca flavescens                (0 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Sander vitreus                 (31 MYA)</c:v>
+                  <c:v>Sander vitreus                 (17.4 - 35.7 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Epinephelus fuscoguttatus               (77 MYA)</c:v>
+                  <c:v>Epinephelus fuscoguttatus               (42.3 - 134.2 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Dicentrarchus labrax            (104 MYA)</c:v>
+                  <c:v>Dicentrarchus labrax            (83.2 - 150.9 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Oreochromis niloticus      (112 MYA)</c:v>
+                  <c:v>Oreochromis niloticus      (100.0 - 130.0 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Esox lucius                     (205 MYA)</c:v>
+                  <c:v>Esox lucius                     (176.6 - 264.0 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Danio rerio                      (224 MYA)</c:v>
+                  <c:v>Danio rerio                      (180.0 - 251.5 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Clarias gariepinus          (224 MYA)</c:v>
+                  <c:v>Clarias gariepinus          (180.0 - 251.5 MYA)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2200,6 +2212,609 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1100" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Transfer of </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1100" b="0" i="1" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>H. sapiens </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1100" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Refseq annotation (protein &amp; mRNA) to diverged mammal genomes by HANNO </a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE" sz="1100">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Suppl. Data 5 - MAMMALS-BUSCO'!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CDS length</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr>
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Suppl. Data 5 - MAMMALS-BUSCO'!$I$3:$I$13</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Homo sapiens               (0 MYA)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Pan paniscus              (6.0 - 6.5 MYA)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Pongo abelii             (14.5 - 16.3 MYA)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Callithrix jacchus         (40.0 - 44.2 MYA)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mus musculus              (81.3 - 91.0 MYA)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Capra hircus                   (91.5 - 97.4 MYA)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Bos taurus                      (91.5 - 97.4 MYA)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Orcinus orca               (91.5 - 97.4 MYA)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Rhinolophus ferrumequinum          (91.5 - 97.4 MYA)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Elephas maximus indicus                            (94.7 - 101.9 MYA)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Phascolarctos cinereus             (147.1 - 164.3 MYA)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Suppl. Data 5 - MAMMALS-BUSCO'!$M$3:$M$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99513923279605232</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98349326945026294</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94586410677024824</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.82085494820503968</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.83342527181293946</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.83791610833206609</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.81939876324744743</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.81368848305670816</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.8494882290639505</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.70351702538700456</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C278-4F4E-9358-37C874C62D48}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Suppl. Data 5 - MAMMALS-BUSCO'!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>UTR length</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="0.0%" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Suppl. Data 5 - MAMMALS-BUSCO'!$I$3:$I$13</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Homo sapiens               (0 MYA)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Pan paniscus              (6.0 - 6.5 MYA)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Pongo abelii             (14.5 - 16.3 MYA)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Callithrix jacchus         (40.0 - 44.2 MYA)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mus musculus              (81.3 - 91.0 MYA)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Capra hircus                   (91.5 - 97.4 MYA)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Bos taurus                      (91.5 - 97.4 MYA)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Orcinus orca               (91.5 - 97.4 MYA)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Rhinolophus ferrumequinum          (91.5 - 97.4 MYA)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Elephas maximus indicus                            (94.7 - 101.9 MYA)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Phascolarctos cinereus             (147.1 - 164.3 MYA)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Suppl. Data 5 - MAMMALS-BUSCO'!$N$3:$N$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98036881854711877</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.96587237874785148</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.87952553459604066</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.20756941785783503</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.4193652089019117</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.42806131789977347</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.53980506069160306</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.51051763648660675</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.44493160131391246</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.13678790276396599</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C278-4F4E-9358-37C874C62D48}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="135202687"/>
+        <c:axId val="240816095"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="135202687"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="240816095"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="240816095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:t>% of maximum</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="135202687"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr rot="1200000"/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -2342,25 +2957,25 @@
                   <c:v>Perca flavescens                (0 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Sander vitreus                 (31 MYA)</c:v>
+                  <c:v>Sander vitreus                 (17.4 - 35.7 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Epinephelus fuscoguttatus               (77 MYA)</c:v>
+                  <c:v>Epinephelus fuscoguttatus               (42.3 - 134.2 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Dicentrarchus labrax            (104 MYA)</c:v>
+                  <c:v>Dicentrarchus labrax            (83.2 - 150.9 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Oreochromis niloticus      (112 MYA)</c:v>
+                  <c:v>Oreochromis niloticus      (100.0 - 130.0 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Esox lucius                     (205 MYA)</c:v>
+                  <c:v>Esox lucius                     (176.6 - 264.0 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Danio rerio                      (224 MYA)</c:v>
+                  <c:v>Danio rerio                      (180.0 - 251.5 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Clarias gariepinus          (224 MYA)</c:v>
+                  <c:v>Clarias gariepinus          (180.0 - 251.5 MYA)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2495,25 +3110,25 @@
                   <c:v>Perca flavescens                (0 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Sander vitreus                 (31 MYA)</c:v>
+                  <c:v>Sander vitreus                 (17.4 - 35.7 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Epinephelus fuscoguttatus               (77 MYA)</c:v>
+                  <c:v>Epinephelus fuscoguttatus               (42.3 - 134.2 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Dicentrarchus labrax            (104 MYA)</c:v>
+                  <c:v>Dicentrarchus labrax            (83.2 - 150.9 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Oreochromis niloticus      (112 MYA)</c:v>
+                  <c:v>Oreochromis niloticus      (100.0 - 130.0 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Esox lucius                     (205 MYA)</c:v>
+                  <c:v>Esox lucius                     (176.6 - 264.0 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Danio rerio                      (224 MYA)</c:v>
+                  <c:v>Danio rerio                      (180.0 - 251.5 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Clarias gariepinus          (224 MYA)</c:v>
+                  <c:v>Clarias gariepinus          (180.0 - 251.5 MYA)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2808,6 +3423,1150 @@
               <a:rPr lang="de-DE" sz="1100" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
+              <a:t>Annotation of </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1100" b="0" i="1" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Esox lucius </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1100" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>by HANNO using </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>species-level RNAseq data in combination with a </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1100" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>diverged Refseq protein/mRNA dataset from </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1100" b="0" i="1" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>P.flavescens</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE" sz="1100" i="1">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Suppl. Data 2 - FISHES-BUSCO'!$B$85</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Complete</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.0" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Suppl. Data 2 - FISHES-BUSCO'!$I$86:$I$87</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Esox lucius                    +diverged evidence       (176.6 - 264.0 MYA)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Esox lucius                    +diverged evidence       (176.6 - 264.0 MYA) +RNAseq (E. lucius)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Suppl. Data 2 - FISHES-BUSCO'!$B$86:$B$87</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>94.546199999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>97.469499999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C17C-436B-A7F4-F62742EC81EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Suppl. Data 2 - FISHES-BUSCO'!$E$85</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fragmented</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="3.5420616332669315E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-C17C-436B-A7F4-F62742EC81EA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="#,##0.0" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Suppl. Data 2 - FISHES-BUSCO'!$I$86:$I$87</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Esox lucius                    +diverged evidence       (176.6 - 264.0 MYA)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Esox lucius                    +diverged evidence       (176.6 - 264.0 MYA) +RNAseq (E. lucius)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Suppl. Data 2 - FISHES-BUSCO'!$E$86:$E$87</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3.90489</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1125700000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C17C-436B-A7F4-F62742EC81EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Suppl. Data 2 - FISHES-BUSCO'!$F$85</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Missing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.0" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Suppl. Data 2 - FISHES-BUSCO'!$I$86:$I$87</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Esox lucius                    +diverged evidence       (176.6 - 264.0 MYA)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Esox lucius                    +diverged evidence       (176.6 - 264.0 MYA) +RNAseq (E. lucius)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Suppl. Data 2 - FISHES-BUSCO'!$F$86:$F$87</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.54887</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.41798</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C17C-436B-A7F4-F62742EC81EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="100"/>
+        <c:axId val="135202687"/>
+        <c:axId val="240816095"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="135202687"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="240816095"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="240816095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="80"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>BUSCO genes (actinopterygii_odb9) [%]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="135202687"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr rot="1200000"/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1100" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Transfer of </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1100" b="0" i="1" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>B.bufo </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1100" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Refseq annotation (protein &amp; mRNA) to diverged amphibia genomes by HANNO </a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE" sz="1100">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Suppl. Data 2 - FISHES-BUSCO'!$J$85</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CDS length</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Suppl. Data 2 - FISHES-BUSCO'!$I$86:$I$87</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Esox lucius                    +diverged evidence       (176.6 - 264.0 MYA)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Esox lucius                    +diverged evidence       (176.6 - 264.0 MYA) +RNAseq (E. lucius)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Suppl. Data 2 - FISHES-BUSCO'!$J$86:$J$87</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>37358478</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44071989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5578-4050-AD18-3DC8565B91A7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Suppl. Data 2 - FISHES-BUSCO'!$K$85</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>UTR length</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Suppl. Data 2 - FISHES-BUSCO'!$I$86:$I$87</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Esox lucius                    +diverged evidence       (176.6 - 264.0 MYA)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Esox lucius                    +diverged evidence       (176.6 - 264.0 MYA) +RNAseq (E. lucius)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Suppl. Data 2 - FISHES-BUSCO'!$K$86:$K$87</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>5428294</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48182224</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5578-4050-AD18-3DC8565B91A7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="135202687"/>
+        <c:axId val="240816095"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="135202687"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="240816095"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="240816095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>annotated</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:t> [bp]</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="135202687"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr rot="1200000"/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1100" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
               <a:t>Transfer of </a:t>
             </a:r>
             <a:r>
@@ -2957,19 +4716,19 @@
                   <c:v>Bufo bufo                             (0 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Bufotes viridis                 (31,9 MYA)</c:v>
+                  <c:v>Bufotes viridis                 (29.4 - 42.8 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Leptodactylus fuscus        (68 MYA)</c:v>
+                  <c:v>Leptodactylus fuscus        (59.7 - 130.0 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Spea bombifrons            (192 MYA)</c:v>
+                  <c:v>Spea bombifrons            (172.6 - 208.2 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Xenopus tropicalis       (202 MYA)</c:v>
+                  <c:v>Xenopus tropicalis       (176.7 - 210.5 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Bombina bombina       (210 MYA)</c:v>
+                  <c:v>Bombina bombina       (186.8 - 223.0 MYA)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3103,19 +4862,19 @@
                   <c:v>Bufo bufo                             (0 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Bufotes viridis                 (31,9 MYA)</c:v>
+                  <c:v>Bufotes viridis                 (29.4 - 42.8 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Leptodactylus fuscus        (68 MYA)</c:v>
+                  <c:v>Leptodactylus fuscus        (59.7 - 130.0 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Spea bombifrons            (192 MYA)</c:v>
+                  <c:v>Spea bombifrons            (172.6 - 208.2 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Xenopus tropicalis       (202 MYA)</c:v>
+                  <c:v>Xenopus tropicalis       (176.7 - 210.5 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Bombina bombina       (210 MYA)</c:v>
+                  <c:v>Bombina bombina       (186.8 - 223.0 MYA)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3249,19 +5008,19 @@
                   <c:v>Bufo bufo                             (0 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Bufotes viridis                 (31,9 MYA)</c:v>
+                  <c:v>Bufotes viridis                 (29.4 - 42.8 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Leptodactylus fuscus        (68 MYA)</c:v>
+                  <c:v>Leptodactylus fuscus        (59.7 - 130.0 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Spea bombifrons            (192 MYA)</c:v>
+                  <c:v>Spea bombifrons            (172.6 - 208.2 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Xenopus tropicalis       (202 MYA)</c:v>
+                  <c:v>Xenopus tropicalis       (176.7 - 210.5 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Bombina bombina       (210 MYA)</c:v>
+                  <c:v>Bombina bombina       (186.8 - 223.0 MYA)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3561,7 +5320,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -3703,19 +5462,19 @@
                   <c:v>Bufo bufo                             (0 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Bufotes viridis                 (31,9 MYA)</c:v>
+                  <c:v>Bufotes viridis                 (29.4 - 42.8 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Leptodactylus fuscus        (68 MYA)</c:v>
+                  <c:v>Leptodactylus fuscus        (59.7 - 130.0 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Spea bombifrons            (192 MYA)</c:v>
+                  <c:v>Spea bombifrons            (172.6 - 208.2 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Xenopus tropicalis       (202 MYA)</c:v>
+                  <c:v>Xenopus tropicalis       (176.7 - 210.5 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Bombina bombina       (210 MYA)</c:v>
+                  <c:v>Bombina bombina       (186.8 - 223.0 MYA)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3844,19 +5603,19 @@
                   <c:v>Bufo bufo                             (0 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Bufotes viridis                 (31,9 MYA)</c:v>
+                  <c:v>Bufotes viridis                 (29.4 - 42.8 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Leptodactylus fuscus        (68 MYA)</c:v>
+                  <c:v>Leptodactylus fuscus        (59.7 - 130.0 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Spea bombifrons            (192 MYA)</c:v>
+                  <c:v>Spea bombifrons            (172.6 - 208.2 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Xenopus tropicalis       (202 MYA)</c:v>
+                  <c:v>Xenopus tropicalis       (176.7 - 210.5 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Bombina bombina       (210 MYA)</c:v>
+                  <c:v>Bombina bombina       (186.8 - 223.0 MYA)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4108,7 +5867,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -4294,19 +6053,19 @@
                   <c:v>Taeniopygia guttata               (0 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Serinus canaria                    (24 MYA)</c:v>
+                  <c:v>Serinus canaria                    (15.1 - 50.3 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Myiozetetes cayanensis     (26 MYA)</c:v>
+                  <c:v>Myiozetetes cayanensis     (54.7 - 71.3 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Phaethornis superciliosus                    (76 MYA)</c:v>
+                  <c:v>Phaethornis superciliosus                    (67.9 - 112.6 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Gallus gallus                         (91 MYA)</c:v>
+                  <c:v>Gallus gallus                         (86.5 - 101.8 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Dromaius novaehollandiae (108 MYA)</c:v>
+                  <c:v>Dromaius novaehollandiae (97.0 - 118.1 MYA)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4440,19 +6199,19 @@
                   <c:v>Taeniopygia guttata               (0 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Serinus canaria                    (24 MYA)</c:v>
+                  <c:v>Serinus canaria                    (15.1 - 50.3 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Myiozetetes cayanensis     (26 MYA)</c:v>
+                  <c:v>Myiozetetes cayanensis     (54.7 - 71.3 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Phaethornis superciliosus                    (76 MYA)</c:v>
+                  <c:v>Phaethornis superciliosus                    (67.9 - 112.6 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Gallus gallus                         (91 MYA)</c:v>
+                  <c:v>Gallus gallus                         (86.5 - 101.8 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Dromaius novaehollandiae (108 MYA)</c:v>
+                  <c:v>Dromaius novaehollandiae (97.0 - 118.1 MYA)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4586,19 +6345,19 @@
                   <c:v>Taeniopygia guttata               (0 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Serinus canaria                    (24 MYA)</c:v>
+                  <c:v>Serinus canaria                    (15.1 - 50.3 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Myiozetetes cayanensis     (26 MYA)</c:v>
+                  <c:v>Myiozetetes cayanensis     (54.7 - 71.3 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Phaethornis superciliosus                    (76 MYA)</c:v>
+                  <c:v>Phaethornis superciliosus                    (67.9 - 112.6 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Gallus gallus                         (91 MYA)</c:v>
+                  <c:v>Gallus gallus                         (86.5 - 101.8 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Dromaius novaehollandiae (108 MYA)</c:v>
+                  <c:v>Dromaius novaehollandiae (97.0 - 118.1 MYA)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4898,7 +6657,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -5040,19 +6799,19 @@
                   <c:v>Taeniopygia guttata               (0 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Serinus canaria                    (24 MYA)</c:v>
+                  <c:v>Serinus canaria                    (15.1 - 50.3 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Myiozetetes cayanensis     (26 MYA)</c:v>
+                  <c:v>Myiozetetes cayanensis     (54.7 - 71.3 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Phaethornis superciliosus                    (76 MYA)</c:v>
+                  <c:v>Phaethornis superciliosus                    (67.9 - 112.6 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Gallus gallus                         (91 MYA)</c:v>
+                  <c:v>Gallus gallus                         (86.5 - 101.8 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Dromaius novaehollandiae (108 MYA)</c:v>
+                  <c:v>Dromaius novaehollandiae (97.0 - 118.1 MYA)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5181,19 +6940,19 @@
                   <c:v>Taeniopygia guttata               (0 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Serinus canaria                    (24 MYA)</c:v>
+                  <c:v>Serinus canaria                    (15.1 - 50.3 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Myiozetetes cayanensis     (26 MYA)</c:v>
+                  <c:v>Myiozetetes cayanensis     (54.7 - 71.3 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Phaethornis superciliosus                    (76 MYA)</c:v>
+                  <c:v>Phaethornis superciliosus                    (67.9 - 112.6 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Gallus gallus                         (91 MYA)</c:v>
+                  <c:v>Gallus gallus                         (86.5 - 101.8 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Dromaius novaehollandiae (108 MYA)</c:v>
+                  <c:v>Dromaius novaehollandiae (97.0 - 118.1 MYA)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5440,7 +7199,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -5626,34 +7385,34 @@
                   <c:v>Homo sapiens               (0 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Pan paniscus              (6,4 MYA)</c:v>
+                  <c:v>Pan paniscus              (6.0 - 6.5 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Pongo abelii             (15,2 MYA)</c:v>
+                  <c:v>Pongo abelii             (14.5 - 16.3 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Callithrix jacchus         (43 MYA)</c:v>
+                  <c:v>Callithrix jacchus         (40.0 - 44.2 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Mus musculus              (87 MYA)</c:v>
+                  <c:v>Mus musculus              (81.3 - 91.0 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Capra hircus                   (94 MYA)</c:v>
+                  <c:v>Capra hircus                   (91.5 - 97.4 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Bos taurus                      (94 MYA)</c:v>
+                  <c:v>Bos taurus                      (91.5 - 97.4 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Orcinus orca               (94 MYA)</c:v>
+                  <c:v>Orcinus orca               (91.5 - 97.4 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Rhinolophus ferrumequinum          (94 MYA)</c:v>
+                  <c:v>Rhinolophus ferrumequinum          (91.5 - 97.4 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Elephas maximus indicus                            (99 MYA)</c:v>
+                  <c:v>Elephas maximus indicus                            (94.7 - 101.9 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Phascolarctos cinereus             (160 MYA)</c:v>
+                  <c:v>Phascolarctos cinereus             (147.1 - 164.3 MYA)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5812,34 +7571,34 @@
                   <c:v>Homo sapiens               (0 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Pan paniscus              (6,4 MYA)</c:v>
+                  <c:v>Pan paniscus              (6.0 - 6.5 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Pongo abelii             (15,2 MYA)</c:v>
+                  <c:v>Pongo abelii             (14.5 - 16.3 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Callithrix jacchus         (43 MYA)</c:v>
+                  <c:v>Callithrix jacchus         (40.0 - 44.2 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Mus musculus              (87 MYA)</c:v>
+                  <c:v>Mus musculus              (81.3 - 91.0 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Capra hircus                   (94 MYA)</c:v>
+                  <c:v>Capra hircus                   (91.5 - 97.4 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Bos taurus                      (94 MYA)</c:v>
+                  <c:v>Bos taurus                      (91.5 - 97.4 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Orcinus orca               (94 MYA)</c:v>
+                  <c:v>Orcinus orca               (91.5 - 97.4 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Rhinolophus ferrumequinum          (94 MYA)</c:v>
+                  <c:v>Rhinolophus ferrumequinum          (91.5 - 97.4 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Elephas maximus indicus                            (99 MYA)</c:v>
+                  <c:v>Elephas maximus indicus                            (94.7 - 101.9 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Phascolarctos cinereus             (160 MYA)</c:v>
+                  <c:v>Phascolarctos cinereus             (147.1 - 164.3 MYA)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6009,34 +7768,34 @@
                   <c:v>Homo sapiens               (0 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Pan paniscus              (6,4 MYA)</c:v>
+                  <c:v>Pan paniscus              (6.0 - 6.5 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Pongo abelii             (15,2 MYA)</c:v>
+                  <c:v>Pongo abelii             (14.5 - 16.3 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Callithrix jacchus         (43 MYA)</c:v>
+                  <c:v>Callithrix jacchus         (40.0 - 44.2 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Mus musculus              (87 MYA)</c:v>
+                  <c:v>Mus musculus              (81.3 - 91.0 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Capra hircus                   (94 MYA)</c:v>
+                  <c:v>Capra hircus                   (91.5 - 97.4 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Bos taurus                      (94 MYA)</c:v>
+                  <c:v>Bos taurus                      (91.5 - 97.4 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Orcinus orca               (94 MYA)</c:v>
+                  <c:v>Orcinus orca               (91.5 - 97.4 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Rhinolophus ferrumequinum          (94 MYA)</c:v>
+                  <c:v>Rhinolophus ferrumequinum          (91.5 - 97.4 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Elephas maximus indicus                            (99 MYA)</c:v>
+                  <c:v>Elephas maximus indicus                            (94.7 - 101.9 MYA)</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Phascolarctos cinereus             (160 MYA)</c:v>
+                  <c:v>Phascolarctos cinereus             (147.1 - 164.3 MYA)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6351,608 +8110,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="de-DE" sz="1100" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Transfer of </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="de-DE" sz="1100" b="0" i="1" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>H. sapiens </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="de-DE" sz="1100" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Refseq annotation (protein &amp; mRNA) to diverged mammal genomes by HANNO </a:t>
-            </a:r>
-            <a:endParaRPr lang="de-DE" sz="1100">
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Suppl. Data 5 - MAMMALS-BUSCO'!$M$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>CDS length</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="-5400000" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr>
-                    <a:solidFill>
-                      <a:schemeClr val="bg1"/>
-                    </a:solidFill>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Suppl. Data 5 - MAMMALS-BUSCO'!$I$3:$I$13</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>Homo sapiens               (0 MYA)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Pan paniscus              (6,4 MYA)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Pongo abelii             (15,2 MYA)</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Callithrix jacchus         (43 MYA)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Mus musculus              (87 MYA)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Capra hircus                   (94 MYA)</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Bos taurus                      (94 MYA)</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Orcinus orca               (94 MYA)</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Rhinolophus ferrumequinum          (94 MYA)</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Elephas maximus indicus                            (99 MYA)</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Phascolarctos cinereus             (160 MYA)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Suppl. Data 5 - MAMMALS-BUSCO'!$M$3:$M$13</c:f>
-              <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.99513923279605232</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.98349326945026294</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.94586410677024824</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.82085494820503968</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.83342527181293946</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.83791610833206609</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.81939876324744743</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.81368848305670816</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.8494882290639505</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.70351702538700456</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-C278-4F4E-9358-37C874C62D48}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Suppl. Data 5 - MAMMALS-BUSCO'!$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>UTR length</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:numFmt formatCode="0.0%" sourceLinked="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="bg1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Suppl. Data 5 - MAMMALS-BUSCO'!$I$3:$I$13</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>Homo sapiens               (0 MYA)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Pan paniscus              (6,4 MYA)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Pongo abelii             (15,2 MYA)</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Callithrix jacchus         (43 MYA)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Mus musculus              (87 MYA)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Capra hircus                   (94 MYA)</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Bos taurus                      (94 MYA)</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Orcinus orca               (94 MYA)</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Rhinolophus ferrumequinum          (94 MYA)</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Elephas maximus indicus                            (99 MYA)</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Phascolarctos cinereus             (160 MYA)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Suppl. Data 5 - MAMMALS-BUSCO'!$N$3:$N$13</c:f>
-              <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.98036881854711877</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.96587237874785148</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.87952553459604066</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.20756941785783503</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.4193652089019117</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.42806131789977347</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.53980506069160306</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.51051763648660675</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.44493160131391246</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.13678790276396599</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C278-4F4E-9358-37C874C62D48}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:axId val="135202687"/>
-        <c:axId val="240816095"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="135202687"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="240816095"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="240816095"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="de-DE"/>
-                  <a:t>BUSCO genes (mammalia_odb10) [%]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="0.0%" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="135202687"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst/>
-  </c:chart>
-  <c:txPr>
-    <a:bodyPr rot="1200000"/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -7074,6 +8231,46 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -9125,6 +10322,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -9203,6 +10903,82 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagramm 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73F5C47E-BE5E-401B-AE48-C78915FE6C8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>533403</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1665515</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Diagramm 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{460701CA-BC33-4C02-8E07-8AECFA76BCFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9216,8 +10992,8 @@
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>477614</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>97972</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
@@ -9373,13 +11149,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>446314</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
@@ -9411,13 +11187,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>-1</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>576942</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>195942</xdr:colOff>
       <xdr:row>83</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -9762,41 +11538,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
-        <v>223</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
+      <c r="A1" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
     </row>
     <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="14"/>
       <c r="B2" s="14" t="s">
-        <v>248</v>
+        <v>221</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="B3" s="5">
         <v>8</v>
@@ -9805,7 +11581,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="E3" s="15">
         <f>8/3</f>
@@ -9814,7 +11590,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="B4" s="5">
         <v>12</v>
@@ -9823,7 +11599,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="E4" s="15">
         <f>6/2</f>
@@ -9832,7 +11608,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="B5" s="5">
         <v>12</v>
@@ -9841,7 +11617,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="E5" s="15">
         <f>6/1.75</f>
@@ -9850,7 +11626,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="B6" s="5">
         <v>6</v>
@@ -9859,7 +11635,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="E6" s="15">
         <f>11/7.33</f>
@@ -9906,1209 +11682,1209 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
+      <c r="A1" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B2" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="M2" s="17"/>
+      <c r="B2" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="M2" s="18"/>
       <c r="Q2" s="3" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C4" s="11">
         <v>12</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="E4" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="M4" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>189</v>
-      </c>
       <c r="N4" s="9" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="S4" s="9"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C5" s="11">
         <v>12</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K5" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q5" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="L5" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="M5" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="N5" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="O5" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="P5" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q5" s="9" t="s">
-        <v>172</v>
-      </c>
       <c r="R5" s="9" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="S5" s="9"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C6" s="11">
         <v>12</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="S6" s="9"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C7" s="11">
         <v>12</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="R7" s="9" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="S7" s="9"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C8" s="11">
         <v>12</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="R8" s="9" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="S8" s="9"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C9" s="11">
         <v>12</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="P9" s="9" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="Q9" s="9" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="R9" s="9" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="S9" s="9"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C12" s="11">
         <v>12</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="P12" s="9" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="Q12" s="9" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="R12" s="9" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="S12" s="9"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C13" s="11">
         <v>12</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="P13" s="9" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="Q13" s="9" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="R13" s="9" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="S13" s="9"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C14" s="11">
         <v>12</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="P14" s="9" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="Q14" s="9" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="R14" s="9" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="S14" s="9"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C15" s="11">
         <v>12</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="N15" s="9" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="P15" s="9" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="Q15" s="9" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="R15" s="9" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="S15" s="9"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C16" s="11">
         <v>12</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="N16" s="9" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="O16" s="9" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="P16" s="9" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="Q16" s="9" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="R16" s="9" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="S16" s="9"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C17" s="11">
         <v>12</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="M17" s="10" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="N17" s="9" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="O17" s="9" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="P17" s="9" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="R17" s="9" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="S17" s="9"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C20" s="11">
         <v>8</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="M20" s="10" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="N20" s="9" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="O20" s="9" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="P20" s="9" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="Q20" s="9" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="R20" s="9" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="S20" s="9"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C21" s="11">
         <v>8</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="M21" s="10" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="N21" s="9" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="O21" s="9" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="P21" s="9" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="Q21" s="9" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="R21" s="9" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="S21" s="9"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C22" s="11">
         <v>8</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="G22" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="K22" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="H22" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="I22" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="K22" s="10" t="s">
-        <v>206</v>
-      </c>
       <c r="L22" s="9" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="M22" s="10" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="N22" s="9" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="O22" s="9" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="P22" s="9" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="Q22" s="9" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="R22" s="9" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="S22" s="9"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C23" s="11">
         <v>8</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="L23" s="9" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="M23" s="10" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="N23" s="9" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="O23" s="9" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="P23" s="9" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="Q23" s="9" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="R23" s="9" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="S23" s="9"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C24" s="11">
         <v>8</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="G24" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I24" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="H24" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="I24" s="10" t="s">
-        <v>208</v>
-      </c>
       <c r="J24" s="9" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="L24" s="9" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="M24" s="10" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="N24" s="9" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="O24" s="9" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="P24" s="9" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="Q24" s="9" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="R24" s="9" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="S24" s="9"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C25" s="11">
         <v>8</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="L25" s="9" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="M25" s="10" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="N25" s="9" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="O25" s="9" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="P25" s="9" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="Q25" s="9" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="R25" s="9" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="S25" s="9"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C26" s="11">
         <v>8</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="L26" s="9" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="M26" s="10" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="N26" s="9" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="O26" s="9" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="P26" s="9" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="Q26" s="9" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="R26" s="9" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="S26" s="9"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C27" s="11">
         <v>8</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="L27" s="9" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="M27" s="10" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="N27" s="9" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="O27" s="9" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="P27" s="9" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="Q27" s="9" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="R27" s="9" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="S27" s="9"/>
     </row>
@@ -11135,7 +12911,7 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -11158,628 +12934,628 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C30" s="11">
         <v>6</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="L30" s="9" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="M30" s="10" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="N30" s="9" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="O30" s="9" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="P30" s="9" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="Q30" s="9" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="R30" s="9" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="S30" s="9"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C31" s="11">
         <v>6</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="L31" s="9" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="M31" s="10" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="N31" s="9" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="O31" s="9" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="P31" s="9" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="Q31" s="9" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="R31" s="9" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="S31" s="9"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C32" s="11">
         <v>6</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="L32" s="9" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="M32" s="10" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="N32" s="9" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="O32" s="9" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="P32" s="9" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="Q32" s="9" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="R32" s="9" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="S32" s="9"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C33" s="11">
         <v>6</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="L33" s="9" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="M33" s="10" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="N33" s="9" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="O33" s="9" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="P33" s="9" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="Q33" s="9" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="R33" s="9" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="S33" s="9"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C34" s="11">
         <v>6</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="L34" s="9" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="M34" s="10" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="N34" s="9" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="O34" s="9" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="P34" s="9" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="Q34" s="9" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="R34" s="9" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="S34" s="9"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C35" s="11">
         <v>6</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="L35" s="9" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="M35" s="10" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="N35" s="9" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="O35" s="9" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="P35" s="9" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="Q35" s="9" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="R35" s="9" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="S35" s="9"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C36" s="11">
         <v>6</v>
       </c>
       <c r="D36" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="G36" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="E36" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="G36" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="H36" s="9" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="L36" s="9" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="M36" s="10" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="N36" s="9" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="O36" s="9" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="P36" s="9" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="Q36" s="9" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="R36" s="9" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="S36" s="9"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C37" s="11">
         <v>6</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="H37" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I37" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="K37" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="L37" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="M37" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="N37" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="O37" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="P37" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q37" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="I37" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="J37" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="K37" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="L37" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="M37" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="N37" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="O37" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="P37" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q37" s="9" t="s">
-        <v>108</v>
-      </c>
       <c r="R37" s="9" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="S37" s="9"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C38" s="11">
         <v>6</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K38" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="L38" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="M38" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="N38" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="O38" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="P38" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q38" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="L38" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="M38" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="N38" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="O38" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="P38" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q38" s="9" t="s">
-        <v>105</v>
-      </c>
       <c r="R38" s="9" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="S38" s="9"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C39" s="11">
         <v>6</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K39" s="10" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="L39" s="9" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="M39" s="10" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="N39" s="9" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="O39" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="P39" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q39" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="P39" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q39" s="9" t="s">
-        <v>102</v>
-      </c>
       <c r="R39" s="9" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="S39" s="9"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C40" s="11">
         <v>6</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K40" s="10" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="L40" s="9" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="M40" s="10" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="N40" s="9" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="O40" s="9" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="P40" s="9" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="Q40" s="9" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="R40" s="9" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="S40" s="9"/>
     </row>
@@ -11800,17 +13576,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N87"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N55" sqref="N55"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="15.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="48" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -11818,7 +13593,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -11827,10 +13602,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>32</v>
@@ -11842,19 +13617,19 @@
         <v>42</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>250</v>
+        <v>223</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>249</v>
+        <v>222</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>250</v>
+        <v>223</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>249</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -11924,11 +13699,11 @@
         <f>K3-J3</f>
         <v>24524181</v>
       </c>
-      <c r="M3" s="18">
+      <c r="M3" s="16">
         <f>J3/J$3</f>
         <v>1</v>
       </c>
-      <c r="N3" s="18">
+      <c r="N3" s="16">
         <f>L3/L$3</f>
         <v>1</v>
       </c>
@@ -11959,7 +13734,7 @@
         <v>44</v>
       </c>
       <c r="I4" t="s">
-        <v>54</v>
+        <v>226</v>
       </c>
       <c r="J4">
         <v>39992208</v>
@@ -11971,11 +13746,11 @@
         <f>K4-J4</f>
         <v>22723842</v>
       </c>
-      <c r="M4" s="18">
+      <c r="M4" s="16">
         <f>J4/J$3</f>
         <v>0.92236815084321799</v>
       </c>
-      <c r="N4" s="18">
+      <c r="N4" s="16">
         <f t="shared" ref="N4:N8" si="0">L4/L$3</f>
         <v>0.92658923044157926</v>
       </c>
@@ -12006,7 +13781,7 @@
         <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="J5">
         <v>40475013</v>
@@ -12018,11 +13793,11 @@
         <f>K5-J5</f>
         <v>19182929</v>
       </c>
-      <c r="M5" s="18">
+      <c r="M5" s="16">
         <f>J5/J$3</f>
         <v>0.93350341887012611</v>
       </c>
-      <c r="N5" s="18">
+      <c r="N5" s="16">
         <f t="shared" si="0"/>
         <v>0.78220467382784364</v>
       </c>
@@ -12053,7 +13828,7 @@
         <v>50</v>
       </c>
       <c r="I6" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="J6">
         <v>40233885</v>
@@ -12065,11 +13840,11 @@
         <f>K6-J6</f>
         <v>18258117</v>
       </c>
-      <c r="M6" s="18">
+      <c r="M6" s="16">
         <f>J6/J$3</f>
         <v>0.92794211584138298</v>
       </c>
-      <c r="N6" s="18">
+      <c r="N6" s="16">
         <f t="shared" si="0"/>
         <v>0.74449446446346157</v>
       </c>
@@ -12100,7 +13875,7 @@
         <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>55</v>
+        <v>228</v>
       </c>
       <c r="J7">
         <v>42375984</v>
@@ -12112,11 +13887,11 @@
         <f>K7-J7</f>
         <v>12976283</v>
       </c>
-      <c r="M7" s="18">
+      <c r="M7" s="16">
         <f>J7/J$3</f>
         <v>0.9773468372199352</v>
       </c>
-      <c r="N7" s="18">
+      <c r="N7" s="16">
         <f t="shared" si="0"/>
         <v>0.5291219714941755</v>
       </c>
@@ -12147,7 +13922,7 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>56</v>
+        <v>229</v>
       </c>
       <c r="J8">
         <v>37358478</v>
@@ -12159,11 +13934,11 @@
         <f>K8-J8</f>
         <v>5428294</v>
       </c>
-      <c r="M8" s="18">
+      <c r="M8" s="16">
         <f>J8/J$3</f>
         <v>0.86162460125174989</v>
       </c>
-      <c r="N8" s="18">
+      <c r="N8" s="16">
         <f t="shared" si="0"/>
         <v>0.22134455784680435</v>
       </c>
@@ -12194,7 +13969,7 @@
         <v>49</v>
       </c>
       <c r="I9" t="s">
-        <v>57</v>
+        <v>230</v>
       </c>
       <c r="J9">
         <v>34102446</v>
@@ -12203,15 +13978,15 @@
         <v>39237544</v>
       </c>
       <c r="L9">
-        <f t="shared" ref="L9:L10" si="1">K9-J9</f>
+        <f>K9-J9</f>
         <v>5135098</v>
       </c>
-      <c r="M9" s="18">
-        <f t="shared" ref="M9:M10" si="2">J9/J$3</f>
+      <c r="M9" s="16">
+        <f>J9/J$3</f>
         <v>0.78652846715166858</v>
       </c>
-      <c r="N9" s="18">
-        <f t="shared" ref="N9:N10" si="3">L9/L$3</f>
+      <c r="N9" s="16">
+        <f t="shared" ref="N9:N10" si="1">L9/L$3</f>
         <v>0.20938917389330963</v>
       </c>
     </row>
@@ -12241,7 +14016,7 @@
         <v>51</v>
       </c>
       <c r="I10" t="s">
-        <v>58</v>
+        <v>231</v>
       </c>
       <c r="J10">
         <v>33157020</v>
@@ -12250,16 +14025,139 @@
         <v>38281546</v>
       </c>
       <c r="L10">
+        <f>K10-J10</f>
+        <v>5124526</v>
+      </c>
+      <c r="M10" s="16">
+        <f>J10/J$3</f>
+        <v>0.76472344874960629</v>
+      </c>
+      <c r="N10" s="16">
         <f t="shared" si="1"/>
-        <v>5124526</v>
-      </c>
-      <c r="M10" s="18">
-        <f t="shared" si="2"/>
-        <v>0.76472344874960629</v>
-      </c>
-      <c r="N10" s="18">
-        <f t="shared" si="3"/>
         <v>0.20895808916106107</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J85" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="K85" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="L85" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="M85" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>252</v>
+      </c>
+      <c r="B86">
+        <v>94.546199999999999</v>
+      </c>
+      <c r="C86">
+        <v>89.070700000000002</v>
+      </c>
+      <c r="D86">
+        <v>5.4755700000000003</v>
+      </c>
+      <c r="E86">
+        <v>3.90489</v>
+      </c>
+      <c r="F86">
+        <v>1.54887</v>
+      </c>
+      <c r="G86">
+        <v>205</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>254</v>
+      </c>
+      <c r="J86">
+        <v>37358478</v>
+      </c>
+      <c r="K86">
+        <v>5428294</v>
+      </c>
+      <c r="L86" s="16">
+        <v>0.86162460125174989</v>
+      </c>
+      <c r="M86" s="16">
+        <v>0.22134455784680435</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>253</v>
+      </c>
+      <c r="B87">
+        <v>97.469499999999996</v>
+      </c>
+      <c r="C87">
+        <v>91.950299999999999</v>
+      </c>
+      <c r="D87">
+        <v>5.5191999999999997</v>
+      </c>
+      <c r="E87">
+        <v>1.1125700000000001</v>
+      </c>
+      <c r="F87">
+        <v>1.41798</v>
+      </c>
+      <c r="G87">
+        <v>205</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>255</v>
+      </c>
+      <c r="J87">
+        <v>44071989</v>
+      </c>
+      <c r="K87">
+        <v>48182224</v>
+      </c>
+      <c r="L87" s="16">
+        <v>1.0164629819366973</v>
+      </c>
+      <c r="M87" s="16">
+        <v>1.9646822864339486</v>
       </c>
     </row>
   </sheetData>
@@ -12276,15 +14174,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="7" max="7" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -12293,7 +14189,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -12302,10 +14198,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>32</v>
@@ -12317,19 +14213,19 @@
         <v>42</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>250</v>
+        <v>223</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>249</v>
+        <v>222</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>250</v>
+        <v>223</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>249</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -12352,7 +14248,7 @@
         <v>1.2</v>
       </c>
       <c r="I2" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -12381,7 +14277,7 @@
         <v>36</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="J3">
         <v>40069458</v>
@@ -12393,11 +14289,11 @@
         <f>K3-J3</f>
         <v>18311829</v>
       </c>
-      <c r="M3" s="18">
+      <c r="M3" s="16">
         <f>J3/J$3</f>
         <v>1</v>
       </c>
-      <c r="N3" s="18">
+      <c r="N3" s="16">
         <f>L3/L$3</f>
         <v>1</v>
       </c>
@@ -12428,7 +14324,7 @@
         <v>37</v>
       </c>
       <c r="I4" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="J4">
         <v>36216624</v>
@@ -12440,11 +14336,11 @@
         <f t="shared" ref="L4:L8" si="0">K4-J4</f>
         <v>17910777</v>
       </c>
-      <c r="M4" s="18">
+      <c r="M4" s="16">
         <f t="shared" ref="M4:M8" si="1">J4/J$3</f>
         <v>0.90384611641115786</v>
       </c>
-      <c r="N4" s="18">
+      <c r="N4" s="16">
         <f t="shared" ref="N4:N8" si="2">L4/L$3</f>
         <v>0.97809874699026511</v>
       </c>
@@ -12475,7 +14371,7 @@
         <v>33</v>
       </c>
       <c r="I5" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="J5">
         <v>34216395</v>
@@ -12487,11 +14383,11 @@
         <f t="shared" si="0"/>
         <v>9222461</v>
       </c>
-      <c r="M5" s="18">
+      <c r="M5" s="16">
         <f t="shared" si="1"/>
         <v>0.85392707333351003</v>
       </c>
-      <c r="N5" s="18">
+      <c r="N5" s="16">
         <f t="shared" si="2"/>
         <v>0.50363407172489438</v>
       </c>
@@ -12522,7 +14418,7 @@
         <v>38</v>
       </c>
       <c r="I6" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="J6">
         <v>29948538</v>
@@ -12534,11 +14430,11 @@
         <f t="shared" si="0"/>
         <v>3720097</v>
       </c>
-      <c r="M6" s="18">
+      <c r="M6" s="16">
         <f>J6/J$3</f>
         <v>0.74741560018106556</v>
       </c>
-      <c r="N6" s="18">
+      <c r="N6" s="16">
         <f t="shared" si="2"/>
         <v>0.20315267251567279</v>
       </c>
@@ -12569,7 +14465,7 @@
         <v>39</v>
       </c>
       <c r="I7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="J7">
         <v>30682989</v>
@@ -12581,11 +14477,11 @@
         <f t="shared" si="0"/>
         <v>4078788</v>
       </c>
-      <c r="M7" s="18">
+      <c r="M7" s="16">
         <f t="shared" si="1"/>
         <v>0.76574504701311408</v>
       </c>
-      <c r="N7" s="18">
+      <c r="N7" s="16">
         <f t="shared" si="2"/>
         <v>0.22274061209287177</v>
       </c>
@@ -12616,7 +14512,7 @@
         <v>40</v>
       </c>
       <c r="I8" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="J8">
         <v>32362506</v>
@@ -12628,11 +14524,11 @@
         <f t="shared" si="0"/>
         <v>5892698</v>
       </c>
-      <c r="M8" s="18">
+      <c r="M8" s="16">
         <f t="shared" si="1"/>
         <v>0.80766018846573862</v>
       </c>
-      <c r="N8" s="18">
+      <c r="N8" s="16">
         <f t="shared" si="2"/>
         <v>0.32179734749598199</v>
       </c>
@@ -12651,9 +14547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M54" sqref="M54"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -12670,7 +14564,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -12679,10 +14573,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>32</v>
@@ -12694,19 +14588,19 @@
         <v>42</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>250</v>
+        <v>223</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>249</v>
+        <v>222</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>250</v>
+        <v>223</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>249</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -12732,10 +14626,10 @@
         <v>0</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I2" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -12761,10 +14655,10 @@
         <v>0</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I3" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="J3">
         <v>31615224</v>
@@ -12776,11 +14670,11 @@
         <f>K3-J3</f>
         <v>40970212</v>
       </c>
-      <c r="M3" s="18">
+      <c r="M3" s="16">
         <f>J3/J$3</f>
         <v>1</v>
       </c>
-      <c r="N3" s="18">
+      <c r="N3" s="16">
         <f>L3/L$3</f>
         <v>1</v>
       </c>
@@ -12808,10 +14702,10 @@
         <v>24</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I4" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="J4">
         <v>29193375</v>
@@ -12823,11 +14717,11 @@
         <f t="shared" ref="L4:L8" si="0">K4-J4</f>
         <v>39376281</v>
       </c>
-      <c r="M4" s="18">
+      <c r="M4" s="16">
         <f t="shared" ref="M4:M8" si="1">J4/J$3</f>
         <v>0.92339611447953052</v>
       </c>
-      <c r="N4" s="18">
+      <c r="N4" s="16">
         <f t="shared" ref="N4:N8" si="2">L4/L$3</f>
         <v>0.96109536850822253</v>
       </c>
@@ -12855,10 +14749,10 @@
         <v>26</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I5" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="J5">
         <v>28543833</v>
@@ -12870,18 +14764,18 @@
         <f t="shared" si="0"/>
         <v>36429412</v>
       </c>
-      <c r="M5" s="18">
+      <c r="M5" s="16">
         <f t="shared" si="1"/>
         <v>0.90285088601618002</v>
       </c>
-      <c r="N5" s="18">
+      <c r="N5" s="16">
         <f t="shared" si="2"/>
         <v>0.88916825717182035</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="B6">
         <v>96.276700000000005</v>
@@ -12902,10 +14796,10 @@
         <v>76</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="I6" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="J6">
         <v>26619750</v>
@@ -12917,11 +14811,11 @@
         <f t="shared" si="0"/>
         <v>27939648</v>
       </c>
-      <c r="M6" s="18">
+      <c r="M6" s="16">
         <f>J6/J$3</f>
         <v>0.84199150384004873</v>
       </c>
-      <c r="N6" s="18">
+      <c r="N6" s="16">
         <f t="shared" si="2"/>
         <v>0.68195029110418082</v>
       </c>
@@ -12949,10 +14843,10 @@
         <v>91</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="I7" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="J7">
         <v>27273093</v>
@@ -12964,11 +14858,11 @@
         <f t="shared" si="0"/>
         <v>20159386</v>
       </c>
-      <c r="M7" s="18">
+      <c r="M7" s="16">
         <f t="shared" si="1"/>
         <v>0.86265695919155916</v>
       </c>
-      <c r="N7" s="18">
+      <c r="N7" s="16">
         <f t="shared" si="2"/>
         <v>0.49204983366939864</v>
       </c>
@@ -12996,10 +14890,10 @@
         <v>108</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I8" t="s">
-        <v>64</v>
+        <v>241</v>
       </c>
       <c r="J8">
         <v>27404262</v>
@@ -13011,11 +14905,11 @@
         <f t="shared" si="0"/>
         <v>25098488</v>
       </c>
-      <c r="M8" s="18">
+      <c r="M8" s="16">
         <f t="shared" si="1"/>
         <v>0.86680587807949738</v>
       </c>
-      <c r="N8" s="18">
+      <c r="N8" s="16">
         <f t="shared" si="2"/>
         <v>0.61260332262864536</v>
       </c>
@@ -13033,9 +14927,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3:N3"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -13051,7 +14943,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -13060,10 +14952,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>32</v>
@@ -13075,19 +14967,19 @@
         <v>42</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>250</v>
+        <v>223</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>249</v>
+        <v>222</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>250</v>
+        <v>223</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>249</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -13113,10 +15005,10 @@
         <v>0</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -13142,10 +15034,10 @@
         <v>0</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I3" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="J3">
         <v>41805129</v>
@@ -13157,12 +15049,12 @@
         <f>K3-J3</f>
         <v>80575232</v>
       </c>
-      <c r="M3" s="18">
+      <c r="M3" s="16">
         <f>J3/J$3</f>
         <v>1</v>
       </c>
-      <c r="N3" s="18">
-        <f>L3/L$3</f>
+      <c r="N3" s="16">
+        <f t="shared" ref="N3:N13" si="0">L3/L$3</f>
         <v>1</v>
       </c>
     </row>
@@ -13189,10 +15081,10 @@
         <v>6.4</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="I4" t="s">
-        <v>84</v>
+        <v>242</v>
       </c>
       <c r="J4">
         <v>41601924</v>
@@ -13204,12 +15096,12 @@
         <f>K4-J4</f>
         <v>78993445</v>
       </c>
-      <c r="M4" s="18">
-        <f t="shared" ref="M4:M13" si="0">J4/J$3</f>
+      <c r="M4" s="16">
+        <f t="shared" ref="M4:M13" si="1">J4/J$3</f>
         <v>0.99513923279605232</v>
       </c>
-      <c r="N4" s="18">
-        <f>L4/L$3</f>
+      <c r="N4" s="16">
+        <f t="shared" si="0"/>
         <v>0.98036881854711877</v>
       </c>
     </row>
@@ -13236,10 +15128,10 @@
         <v>15.2</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I5" t="s">
-        <v>83</v>
+        <v>243</v>
       </c>
       <c r="J5">
         <v>41115063</v>
@@ -13248,15 +15140,15 @@
         <v>118940454</v>
       </c>
       <c r="L5">
-        <f t="shared" ref="L5:L13" si="1">K5-J5</f>
+        <f t="shared" ref="L5:L13" si="2">K5-J5</f>
         <v>77825391</v>
       </c>
-      <c r="M5" s="18">
+      <c r="M5" s="16">
+        <f t="shared" si="1"/>
+        <v>0.98349326945026294</v>
+      </c>
+      <c r="N5" s="16">
         <f t="shared" si="0"/>
-        <v>0.98349326945026294</v>
-      </c>
-      <c r="N5" s="18">
-        <f>L5/L$3</f>
         <v>0.96587237874785148</v>
       </c>
     </row>
@@ -13283,10 +15175,10 @@
         <v>43</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="I6" t="s">
-        <v>82</v>
+        <v>244</v>
       </c>
       <c r="J6">
         <v>39541971</v>
@@ -13295,15 +15187,15 @@
         <v>110409945</v>
       </c>
       <c r="L6">
+        <f t="shared" si="2"/>
+        <v>70867974</v>
+      </c>
+      <c r="M6" s="16">
         <f t="shared" si="1"/>
-        <v>70867974</v>
-      </c>
-      <c r="M6" s="18">
+        <v>0.94586410677024824</v>
+      </c>
+      <c r="N6" s="16">
         <f t="shared" si="0"/>
-        <v>0.94586410677024824</v>
-      </c>
-      <c r="N6" s="18">
-        <f>L6/L$3</f>
         <v>0.87952553459604066</v>
       </c>
     </row>
@@ -13330,10 +15222,10 @@
         <v>87</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>245</v>
       </c>
       <c r="J7">
         <v>34315947</v>
@@ -13342,15 +15234,15 @@
         <v>51040901</v>
       </c>
       <c r="L7">
+        <f t="shared" si="2"/>
+        <v>16724954</v>
+      </c>
+      <c r="M7" s="16">
         <f t="shared" si="1"/>
-        <v>16724954</v>
-      </c>
-      <c r="M7" s="18">
+        <v>0.82085494820503968</v>
+      </c>
+      <c r="N7" s="16">
         <f t="shared" si="0"/>
-        <v>0.82085494820503968</v>
-      </c>
-      <c r="N7" s="18">
-        <f>L7/L$3</f>
         <v>0.20756941785783503</v>
       </c>
     </row>
@@ -13377,10 +15269,10 @@
         <v>94</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I8" t="s">
-        <v>80</v>
+        <v>246</v>
       </c>
       <c r="J8">
         <v>34841451</v>
@@ -13389,15 +15281,15 @@
         <v>68631900</v>
       </c>
       <c r="L8">
+        <f t="shared" si="2"/>
+        <v>33790449</v>
+      </c>
+      <c r="M8" s="16">
         <f t="shared" si="1"/>
-        <v>33790449</v>
-      </c>
-      <c r="M8" s="18">
+        <v>0.83342527181293946</v>
+      </c>
+      <c r="N8" s="16">
         <f t="shared" si="0"/>
-        <v>0.83342527181293946</v>
-      </c>
-      <c r="N8" s="18">
-        <f>L8/L$3</f>
         <v>0.4193652089019117</v>
       </c>
     </row>
@@ -13424,10 +15316,10 @@
         <v>94</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I9" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="J9">
         <v>35029191</v>
@@ -13436,15 +15328,15 @@
         <v>69520331</v>
       </c>
       <c r="L9">
+        <f t="shared" si="2"/>
+        <v>34491140</v>
+      </c>
+      <c r="M9" s="16">
         <f t="shared" si="1"/>
-        <v>34491140</v>
-      </c>
-      <c r="M9" s="18">
+        <v>0.83791610833206609</v>
+      </c>
+      <c r="N9" s="16">
         <f t="shared" si="0"/>
-        <v>0.83791610833206609</v>
-      </c>
-      <c r="N9" s="18">
-        <f>L9/L$3</f>
         <v>0.42806131789977347</v>
       </c>
     </row>
@@ -13471,10 +15363,10 @@
         <v>94</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="I10" t="s">
-        <v>79</v>
+        <v>248</v>
       </c>
       <c r="J10">
         <v>34255071</v>
@@ -13483,15 +15375,15 @@
         <v>77749989</v>
       </c>
       <c r="L10">
+        <f t="shared" si="2"/>
+        <v>43494918</v>
+      </c>
+      <c r="M10" s="16">
         <f t="shared" si="1"/>
-        <v>43494918</v>
-      </c>
-      <c r="M10" s="18">
+        <v>0.81939876324744743</v>
+      </c>
+      <c r="N10" s="16">
         <f t="shared" si="0"/>
-        <v>0.81939876324744743</v>
-      </c>
-      <c r="N10" s="18">
-        <f>L10/L$3</f>
         <v>0.53980506069160306</v>
       </c>
     </row>
@@ -13518,10 +15410,10 @@
         <v>94</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="I11" t="s">
-        <v>78</v>
+        <v>249</v>
       </c>
       <c r="J11">
         <v>34016352</v>
@@ -13530,15 +15422,15 @@
         <v>75151429</v>
       </c>
       <c r="L11">
+        <f t="shared" si="2"/>
+        <v>41135077</v>
+      </c>
+      <c r="M11" s="16">
         <f t="shared" si="1"/>
-        <v>41135077</v>
-      </c>
-      <c r="M11" s="18">
+        <v>0.81368848305670816</v>
+      </c>
+      <c r="N11" s="16">
         <f t="shared" si="0"/>
-        <v>0.81368848305670816</v>
-      </c>
-      <c r="N11" s="18">
-        <f>L11/L$3</f>
         <v>0.51051763648660675</v>
       </c>
     </row>
@@ -13565,10 +15457,10 @@
         <v>99</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I12" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="J12">
         <v>35512965</v>
@@ -13577,15 +15469,15 @@
         <v>71363432</v>
       </c>
       <c r="L12">
+        <f t="shared" si="2"/>
+        <v>35850467</v>
+      </c>
+      <c r="M12" s="16">
         <f t="shared" si="1"/>
-        <v>35850467</v>
-      </c>
-      <c r="M12" s="18">
+        <v>0.8494882290639505</v>
+      </c>
+      <c r="N12" s="16">
         <f t="shared" si="0"/>
-        <v>0.8494882290639505</v>
-      </c>
-      <c r="N12" s="18">
-        <f>L12/L$3</f>
         <v>0.44493160131391246</v>
       </c>
     </row>
@@ -13612,10 +15504,10 @@
         <v>160</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="I13" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="J13">
         <v>29410620</v>
@@ -13624,15 +15516,15 @@
         <v>40432337</v>
       </c>
       <c r="L13">
+        <f t="shared" si="2"/>
+        <v>11021717</v>
+      </c>
+      <c r="M13" s="16">
         <f t="shared" si="1"/>
-        <v>11021717</v>
-      </c>
-      <c r="M13" s="18">
+        <v>0.70351702538700456</v>
+      </c>
+      <c r="N13" s="16">
         <f t="shared" si="0"/>
-        <v>0.70351702538700456</v>
-      </c>
-      <c r="N13" s="18">
-        <f>L13/L$3</f>
         <v>0.13678790276396599</v>
       </c>
     </row>
